--- a/BackTest/2019-10-16 BackTest LRC.xlsx
+++ b/BackTest/2019-10-16 BackTest LRC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.200000000000003</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-55.5555555555552</v>
+      </c>
       <c r="L12" t="n">
         <v>39.61</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-59.99999999999943</v>
+      </c>
       <c r="L13" t="n">
         <v>39.55</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.399999999999991</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-77.77777777777884</v>
+      </c>
       <c r="L14" t="n">
         <v>39.49999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-83.33333333333412</v>
+      </c>
       <c r="L15" t="n">
         <v>39.39999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.79999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-60.00000000000056</v>
+      </c>
       <c r="L16" t="n">
         <v>39.31</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.699999999999989</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>37.50000000000039</v>
+      </c>
       <c r="L17" t="n">
         <v>39.34</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.199999999999989</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>52.38095238095277</v>
+      </c>
       <c r="L18" t="n">
         <v>39.45</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.699999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>23.07692307692324</v>
+      </c>
       <c r="L19" t="n">
         <v>39.51000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.099999999999987</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>37.93103448275888</v>
+      </c>
       <c r="L20" t="n">
         <v>39.61</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>4.599999999999987</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>47.05882352941202</v>
+      </c>
       <c r="L21" t="n">
         <v>39.77</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>4.599999999999987</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>51.51515151515154</v>
+      </c>
       <c r="L22" t="n">
         <v>39.92999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>4.799999999999983</v>
       </c>
       <c r="K23" t="n">
-        <v>20.00000000000019</v>
+        <v>41.17647058823557</v>
       </c>
       <c r="L23" t="n">
         <v>40.08</v>
@@ -1466,7 +1488,7 @@
         <v>4.799999999999983</v>
       </c>
       <c r="K24" t="n">
-        <v>20.00000000000019</v>
+        <v>54.83870967741955</v>
       </c>
       <c r="L24" t="n">
         <v>40.21999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K25" t="n">
-        <v>11.11111111111115</v>
+        <v>43.75000000000001</v>
       </c>
       <c r="L25" t="n">
         <v>40.36999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K26" t="n">
-        <v>11.11111111111115</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L26" t="n">
         <v>40.50999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K27" t="n">
-        <v>19.04761904761903</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>40.55999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>5.099999999999987</v>
       </c>
       <c r="K28" t="n">
-        <v>30.00000000000018</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L28" t="n">
         <v>40.56999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K29" t="n">
-        <v>20.93023255813955</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L29" t="n">
         <v>40.59999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>5.899999999999991</v>
       </c>
       <c r="K30" t="n">
-        <v>29.1666666666667</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L30" t="n">
         <v>40.64</v>
@@ -1809,7 +1831,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K31" t="n">
-        <v>24.00000000000012</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L31" t="n">
         <v>40.6</v>
@@ -1860,7 +1882,7 @@
         <v>6.499999999999986</v>
       </c>
       <c r="K32" t="n">
-        <v>28.30188679245292</v>
+        <v>5.882352941176126</v>
       </c>
       <c r="L32" t="n">
         <v>40.59</v>
@@ -1911,7 +1933,7 @@
         <v>6.699999999999982</v>
       </c>
       <c r="K33" t="n">
-        <v>25.92592592592597</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L33" t="n">
         <v>40.58000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K34" t="n">
-        <v>17.85714285714288</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L34" t="n">
         <v>40.54000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K35" t="n">
-        <v>24.52830188679241</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L35" t="n">
         <v>40.52000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>7.599999999999987</v>
       </c>
       <c r="K36" t="n">
-        <v>31.03448275862066</v>
+        <v>15.38461538461532</v>
       </c>
       <c r="L36" t="n">
         <v>40.56000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K37" t="n">
-        <v>23.07692307692312</v>
+        <v>21.42857142857145</v>
       </c>
       <c r="L37" t="n">
         <v>40.63000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K38" t="n">
-        <v>14.89361702127665</v>
+        <v>36.00000000000023</v>
       </c>
       <c r="L38" t="n">
         <v>40.69</v>
@@ -2217,7 +2239,7 @@
         <v>8.199999999999989</v>
       </c>
       <c r="K39" t="n">
-        <v>33.33333333333333</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L39" t="n">
         <v>40.81</v>
@@ -2268,7 +2290,7 @@
         <v>8.499999999999986</v>
       </c>
       <c r="K40" t="n">
-        <v>18.18181818181829</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L40" t="n">
         <v>40.85</v>
@@ -2319,7 +2341,7 @@
         <v>8.499999999999986</v>
       </c>
       <c r="K41" t="n">
-        <v>7.692307692307804</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L41" t="n">
         <v>40.92</v>
@@ -2370,7 +2392,7 @@
         <v>8.799999999999983</v>
       </c>
       <c r="K42" t="n">
-        <v>14.28571428571433</v>
+        <v>42.85714285714276</v>
       </c>
       <c r="L42" t="n">
         <v>40.98999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>9.299999999999983</v>
       </c>
       <c r="K43" t="n">
-        <v>6.666666666666604</v>
+        <v>30.43478260869582</v>
       </c>
       <c r="L43" t="n">
         <v>41.02999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>9.59999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>15.38461538461564</v>
       </c>
       <c r="L44" t="n">
         <v>41.06999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>9.699999999999982</v>
       </c>
       <c r="K45" t="n">
-        <v>2.127659574468117</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L45" t="n">
         <v>41.09999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>9.799999999999983</v>
       </c>
       <c r="K46" t="n">
-        <v>4.166666666666728</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L46" t="n">
         <v>41.08</v>
@@ -2625,7 +2647,7 @@
         <v>9.799999999999983</v>
       </c>
       <c r="K47" t="n">
-        <v>4.166666666666728</v>
+        <v>-26.31578947368433</v>
       </c>
       <c r="L47" t="n">
         <v>41.02999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>9.899999999999984</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>-52.94117647058828</v>
       </c>
       <c r="L48" t="n">
         <v>40.97</v>
@@ -2727,7 +2749,7 @@
         <v>9.999999999999986</v>
       </c>
       <c r="K49" t="n">
-        <v>8.695652173913178</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>40.89</v>
@@ -2778,7 +2800,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.761904761904665</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L50" t="n">
         <v>40.83</v>
@@ -2829,7 +2851,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L51" t="n">
         <v>40.76000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L52" t="n">
         <v>40.69</v>
@@ -2931,7 +2953,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.439024390243936</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L53" t="n">
         <v>40.64</v>
@@ -2982,7 +3004,7 @@
         <v>10.79999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>5.263157894736921</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L54" t="n">
         <v>40.62</v>
@@ -3033,7 +3055,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>-6.97674418604645</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L55" t="n">
         <v>40.56</v>
@@ -3084,7 +3106,7 @@
         <v>11.69999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>-31.7073170731707</v>
+        <v>-57.89473684210537</v>
       </c>
       <c r="L56" t="n">
         <v>40.45</v>
@@ -3135,7 +3157,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K57" t="n">
-        <v>-31.70731707317093</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L57" t="n">
         <v>40.37</v>
@@ -3186,7 +3208,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K58" t="n">
-        <v>-33.33333333333356</v>
+        <v>-42.85714285714324</v>
       </c>
       <c r="L58" t="n">
         <v>40.29000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>12.19999999999998</v>
       </c>
       <c r="K59" t="n">
-        <v>-40.00000000000011</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L59" t="n">
         <v>40.21</v>
@@ -3288,7 +3310,7 @@
         <v>12.29999999999998</v>
       </c>
       <c r="K60" t="n">
-        <v>-36.84210526315807</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L60" t="n">
         <v>40.13</v>
@@ -3339,7 +3361,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>-33.33333333333346</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L61" t="n">
         <v>40.07</v>
@@ -3390,7 +3412,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>-45.94594594594599</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L62" t="n">
         <v>39.97</v>
@@ -3441,7 +3463,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>-29.41176470588231</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L63" t="n">
         <v>39.92</v>
@@ -3492,7 +3514,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>-27.27272727272735</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L64" t="n">
         <v>39.85</v>
@@ -3543,7 +3565,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>-31.42857142857141</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L65" t="n">
         <v>39.8</v>
@@ -3594,7 +3616,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>-17.948717948718</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L66" t="n">
         <v>39.84</v>
@@ -3645,7 +3667,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.19512195121949</v>
+        <v>22.2222222222224</v>
       </c>
       <c r="L67" t="n">
         <v>39.87</v>
@@ -3696,7 +3718,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.28571428571428</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L68" t="n">
         <v>39.89</v>
@@ -3747,7 +3769,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>-17.07317073170735</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L69" t="n">
         <v>39.9</v>
@@ -3798,7 +3820,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.00000000000001</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L70" t="n">
         <v>39.92</v>
@@ -3849,7 +3871,7 @@
         <v>14.2</v>
       </c>
       <c r="K71" t="n">
-        <v>-15.00000000000001</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L71" t="n">
         <v>39.92</v>
@@ -3900,7 +3922,7 @@
         <v>14.4</v>
       </c>
       <c r="K72" t="n">
-        <v>-17.94871794871778</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L72" t="n">
         <v>39.95</v>
@@ -3951,7 +3973,7 @@
         <v>14.6</v>
       </c>
       <c r="K73" t="n">
-        <v>-15.78947368421049</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L73" t="n">
         <v>39.94</v>
@@ -4002,7 +4024,7 @@
         <v>15.1</v>
       </c>
       <c r="K74" t="n">
-        <v>-25.58139534883713</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L74" t="n">
         <v>39.89999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>15.5</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.76190476190481</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L75" t="n">
         <v>39.92999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>15.6</v>
       </c>
       <c r="K76" t="n">
-        <v>7.692307692307581</v>
+        <v>-17.64705882352956</v>
       </c>
       <c r="L76" t="n">
         <v>39.91999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>15.7</v>
       </c>
       <c r="K77" t="n">
-        <v>-2.702702702702724</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L77" t="n">
         <v>39.88</v>
@@ -4206,7 +4228,7 @@
         <v>16</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.692307692307581</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L78" t="n">
         <v>39.83</v>
@@ -4257,7 +4279,7 @@
         <v>16</v>
       </c>
       <c r="K79" t="n">
-        <v>-10.5263157894736</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L79" t="n">
         <v>39.77999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>16.2</v>
       </c>
       <c r="K80" t="n">
-        <v>-12.82051282051276</v>
+        <v>-29.99999999999996</v>
       </c>
       <c r="L80" t="n">
         <v>39.70999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>16.3</v>
       </c>
       <c r="K81" t="n">
-        <v>-12.82051282051276</v>
+        <v>-36.84210526315793</v>
       </c>
       <c r="L81" t="n">
         <v>39.66</v>
@@ -4410,7 +4432,7 @@
         <v>16.3</v>
       </c>
       <c r="K82" t="n">
-        <v>-10.5263157894736</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L82" t="n">
         <v>39.58999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>-18.91891891891891</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L83" t="n">
         <v>39.52999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>16.5</v>
       </c>
       <c r="K84" t="n">
-        <v>-16.66666666666647</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L84" t="n">
         <v>39.51</v>
@@ -4563,7 +4585,7 @@
         <v>16.5</v>
       </c>
       <c r="K85" t="n">
-        <v>-9.090909090908973</v>
+        <v>-77.77777777777743</v>
       </c>
       <c r="L85" t="n">
         <v>39.45</v>
@@ -4614,7 +4636,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>-24.13793103448281</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L86" t="n">
         <v>39.39</v>
@@ -4665,7 +4687,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>-35.71428571428575</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L87" t="n">
         <v>39.33</v>
@@ -4716,7 +4738,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>-30.76923076923073</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L88" t="n">
         <v>39.3</v>
@@ -4767,7 +4789,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-30.76923076923073</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L89" t="n">
         <v>39.27</v>
@@ -4818,7 +4840,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>-30.76923076923073</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L90" t="n">
         <v>39.25999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>-27.99999999999991</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L91" t="n">
         <v>39.23999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>16.79999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>-41.66666666666681</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L92" t="n">
         <v>39.20999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>16.79999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>-36.36363636363642</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L93" t="n">
         <v>39.19</v>
@@ -5022,7 +5044,7 @@
         <v>16.79999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-17.64705882352936</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L94" t="n">
         <v>39.18</v>
@@ -5073,7 +5095,7 @@
         <v>16.89999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>-57.14285714285728</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>39.16</v>
@@ -5124,7 +5146,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>-46.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>39.15</v>
@@ -5175,7 +5197,7 @@
         <v>17.2</v>
       </c>
       <c r="K97" t="n">
-        <v>-46.6666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L97" t="n">
         <v>39.14</v>
@@ -5226,7 +5248,7 @@
         <v>17.5</v>
       </c>
       <c r="K98" t="n">
-        <v>-46.66666666666686</v>
+        <v>-50</v>
       </c>
       <c r="L98" t="n">
         <v>39.10000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>17.6</v>
       </c>
       <c r="K99" t="n">
-        <v>-37.50000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>39.07000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>17.6</v>
       </c>
       <c r="K100" t="n">
-        <v>-28.5714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>39.04000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>17.6</v>
       </c>
       <c r="K101" t="n">
-        <v>-38.46153846153855</v>
+        <v>-25</v>
       </c>
       <c r="L101" t="n">
         <v>39.01000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>17.7</v>
       </c>
       <c r="K102" t="n">
-        <v>-42.857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>38.98</v>
@@ -5481,7 +5503,7 @@
         <v>17.8</v>
       </c>
       <c r="K103" t="n">
-        <v>-28.5714285714285</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>38.95999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>17.8</v>
       </c>
       <c r="K104" t="n">
-        <v>-23.07692307692333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L104" t="n">
         <v>38.93999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>17.90000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.28571428571443</v>
+        <v>-25</v>
       </c>
       <c r="L105" t="n">
         <v>38.93999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-28.57142857142821</v>
+        <v>-25</v>
       </c>
       <c r="L106" t="n">
         <v>38.90999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>18.10000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>38.89999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>18.30000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L108" t="n">
         <v>38.89999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>38.89999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
         <v>38.91999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>38.94</v>
@@ -5940,7 +5962,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L112" t="n">
         <v>38.97</v>
@@ -5991,7 +6013,7 @@
         <v>19.20000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>-24.99999999999978</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L113" t="n">
         <v>38.93</v>
@@ -6042,7 +6064,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.11111111111117</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L114" t="n">
         <v>38.92</v>

--- a/BackTest/2019-10-16 BackTest LRC.xlsx
+++ b/BackTest/2019-10-16 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="C2" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="D2" t="n">
         <v>39.6</v>
       </c>
       <c r="E2" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2400</v>
+        <v>6648.0903</v>
       </c>
       <c r="G2" t="n">
-        <v>39.7</v>
+        <v>468300.0919545913</v>
       </c>
       <c r="H2" t="n">
-        <v>39.60666666666665</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="C3" t="n">
         <v>39.5</v>
@@ -485,27 +477,30 @@
         <v>39.5</v>
       </c>
       <c r="E3" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="F3" t="n">
-        <v>12316.8669</v>
+        <v>1090.981</v>
       </c>
       <c r="G3" t="n">
-        <v>39.68666666666665</v>
+        <v>469391.0729545913</v>
       </c>
       <c r="H3" t="n">
-        <v>39.60333333333332</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +509,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="C4" t="n">
-        <v>39.8</v>
+        <v>39.4</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="E4" t="n">
-        <v>39.6</v>
+        <v>38.9</v>
       </c>
       <c r="F4" t="n">
-        <v>24150</v>
+        <v>87235.0385</v>
       </c>
       <c r="G4" t="n">
-        <v>39.67999999999999</v>
+        <v>382156.0344545913</v>
       </c>
       <c r="H4" t="n">
-        <v>39.60166666666666</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="C5" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="D5" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="E5" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="F5" t="n">
-        <v>69553.9927</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>39.67999999999999</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H5" t="n">
-        <v>39.595</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +591,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="E6" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="F6" t="n">
-        <v>59110.4455</v>
+        <v>54</v>
       </c>
       <c r="G6" t="n">
-        <v>39.69333333333332</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H6" t="n">
-        <v>39.59166666666667</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +632,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>39.4</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>39.3</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>26929.889</v>
       </c>
       <c r="G7" t="n">
-        <v>39.70666666666666</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58833333333334</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +673,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="C8" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="E8" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="F8" t="n">
-        <v>49.875</v>
+        <v>12295.1357</v>
       </c>
       <c r="G8" t="n">
-        <v>39.7</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +712,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="C9" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="E9" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="F9" t="n">
-        <v>3959.425</v>
+        <v>3425.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>39.67999999999999</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H9" t="n">
-        <v>39.57833333333334</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +751,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="C10" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="E10" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="F10" t="n">
-        <v>9315.199000000001</v>
+        <v>6930.2461</v>
       </c>
       <c r="G10" t="n">
-        <v>39.66666666666666</v>
+        <v>389129.2805545913</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="C11" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="D11" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="E11" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="F11" t="n">
-        <v>5972.232</v>
+        <v>118572.5144</v>
       </c>
       <c r="G11" t="n">
-        <v>39.64666666666665</v>
+        <v>507701.7949545913</v>
       </c>
       <c r="H11" t="n">
-        <v>39.57833333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +829,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="C12" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="D12" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="E12" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1103.321</v>
+        <v>2345.7344</v>
       </c>
       <c r="G12" t="n">
-        <v>39.61999999999998</v>
+        <v>505356.0605545913</v>
       </c>
       <c r="H12" t="n">
-        <v>39.57666666666668</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +868,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="C13" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="D13" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="E13" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="F13" t="n">
-        <v>16766.7015</v>
+        <v>5976.0794</v>
       </c>
       <c r="G13" t="n">
-        <v>39.59999999999998</v>
+        <v>505356.0605545913</v>
       </c>
       <c r="H13" t="n">
-        <v>39.58000000000001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +907,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C14" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="D14" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="E14" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F14" t="n">
-        <v>1290.4715</v>
+        <v>2878.2481</v>
       </c>
       <c r="G14" t="n">
-        <v>39.57333333333331</v>
+        <v>505356.0605545913</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58333333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +946,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="C15" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="D15" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="E15" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1333.8931</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>39.55333333333331</v>
+        <v>505156.0605545913</v>
       </c>
       <c r="H15" t="n">
-        <v>39.59000000000001</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +985,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="C16" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="F16" t="n">
-        <v>50524.0585</v>
+        <v>23607.7528</v>
       </c>
       <c r="G16" t="n">
-        <v>39.51333333333331</v>
+        <v>528763.8133545913</v>
       </c>
       <c r="H16" t="n">
-        <v>39.57666666666668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,42 +1024,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="C17" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="D17" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="F17" t="n">
-        <v>5490</v>
+        <v>2475</v>
       </c>
       <c r="G17" t="n">
-        <v>39.47999999999998</v>
+        <v>526288.8133545913</v>
       </c>
       <c r="H17" t="n">
-        <v>39.56333333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>39</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,42 +1063,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="E18" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="F18" t="n">
-        <v>101817.4535</v>
+        <v>79001.7406</v>
       </c>
       <c r="G18" t="n">
-        <v>39.51333333333331</v>
+        <v>605290.5539545913</v>
       </c>
       <c r="H18" t="n">
-        <v>39.57666666666668</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,40 +1102,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="C19" t="n">
-        <v>40.5</v>
+        <v>39.8</v>
       </c>
       <c r="D19" t="n">
-        <v>40.5</v>
+        <v>39.8</v>
       </c>
       <c r="E19" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="F19" t="n">
-        <v>96511.02469135802</v>
+        <v>19200</v>
       </c>
       <c r="G19" t="n">
-        <v>39.55999999999997</v>
+        <v>586090.5539545913</v>
       </c>
       <c r="H19" t="n">
-        <v>39.59833333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,40 +1141,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="F20" t="n">
-        <v>7228.5366</v>
+        <v>22848.9837</v>
       </c>
       <c r="G20" t="n">
-        <v>39.57333333333331</v>
+        <v>586090.5539545913</v>
       </c>
       <c r="H20" t="n">
-        <v>39.61333333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1180,40 +1180,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="C21" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="D21" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="F21" t="n">
-        <v>37265.9523</v>
+        <v>55500</v>
       </c>
       <c r="G21" t="n">
-        <v>39.59999999999998</v>
+        <v>586090.5539545913</v>
       </c>
       <c r="H21" t="n">
-        <v>39.62500000000001</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>39.8</v>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1222,40 +1221,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="C22" t="n">
-        <v>40.9</v>
+        <v>39.8</v>
       </c>
       <c r="D22" t="n">
-        <v>40.9</v>
+        <v>39.8</v>
       </c>
       <c r="E22" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="F22" t="n">
-        <v>70572.4981</v>
+        <v>11836.8059</v>
       </c>
       <c r="G22" t="n">
-        <v>39.65999999999998</v>
+        <v>586090.5539545913</v>
       </c>
       <c r="H22" t="n">
-        <v>39.64333333333335</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1264,40 +1260,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.8</v>
+        <v>39.7</v>
       </c>
       <c r="C23" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="E23" t="n">
-        <v>40.5</v>
+        <v>39.7</v>
       </c>
       <c r="F23" t="n">
-        <v>131671.3261</v>
+        <v>1277.6908</v>
       </c>
       <c r="G23" t="n">
-        <v>39.73999999999997</v>
+        <v>584812.8631545913</v>
       </c>
       <c r="H23" t="n">
-        <v>39.66166666666668</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,40 +1299,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="C24" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="D24" t="n">
-        <v>41.2</v>
+        <v>39.7</v>
       </c>
       <c r="E24" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="F24" t="n">
-        <v>134676.7215</v>
+        <v>1872.4547</v>
       </c>
       <c r="G24" t="n">
-        <v>39.82666666666664</v>
+        <v>582940.4084545913</v>
       </c>
       <c r="H24" t="n">
-        <v>39.68166666666668</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,40 +1338,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="C25" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="D25" t="n">
-        <v>41.1</v>
+        <v>39.7</v>
       </c>
       <c r="E25" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="F25" t="n">
-        <v>3940</v>
+        <v>29700</v>
       </c>
       <c r="G25" t="n">
-        <v>39.91333333333331</v>
+        <v>612640.4084545913</v>
       </c>
       <c r="H25" t="n">
-        <v>39.69833333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1390,40 +1377,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.6</v>
+        <v>39.7</v>
       </c>
       <c r="C26" t="n">
-        <v>40.5</v>
+        <v>39.7</v>
       </c>
       <c r="D26" t="n">
-        <v>41.1</v>
+        <v>39.8</v>
       </c>
       <c r="E26" t="n">
-        <v>40.5</v>
+        <v>39.7</v>
       </c>
       <c r="F26" t="n">
-        <v>36385.5254</v>
+        <v>98768</v>
       </c>
       <c r="G26" t="n">
-        <v>39.98666666666665</v>
+        <v>612640.4084545913</v>
       </c>
       <c r="H26" t="n">
-        <v>39.71500000000001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,40 +1416,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.9</v>
+        <v>39.6</v>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="D27" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="E27" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="F27" t="n">
-        <v>53372.6217</v>
+        <v>600</v>
       </c>
       <c r="G27" t="n">
-        <v>40.06666666666665</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H27" t="n">
-        <v>39.72833333333335</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1474,40 +1455,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="C28" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="D28" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="E28" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="F28" t="n">
-        <v>10103.4412</v>
+        <v>4200</v>
       </c>
       <c r="G28" t="n">
-        <v>40.14666666666665</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H28" t="n">
-        <v>39.74500000000001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,40 +1494,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.9</v>
+        <v>39.6</v>
       </c>
       <c r="C29" t="n">
-        <v>40.6</v>
+        <v>39.6</v>
       </c>
       <c r="D29" t="n">
-        <v>40.9</v>
+        <v>39.6</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6</v>
+        <v>39.5</v>
       </c>
       <c r="F29" t="n">
-        <v>11744.5312</v>
+        <v>4653.92</v>
       </c>
       <c r="G29" t="n">
-        <v>40.23999999999999</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H29" t="n">
-        <v>39.76500000000001</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,40 +1533,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="C30" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="D30" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="E30" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="F30" t="n">
-        <v>14234.682</v>
+        <v>4065.014</v>
       </c>
       <c r="G30" t="n">
-        <v>40.30666666666665</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H30" t="n">
-        <v>39.78000000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1600,40 +1572,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="C31" t="n">
-        <v>40.8</v>
+        <v>39.6</v>
       </c>
       <c r="D31" t="n">
-        <v>40.8</v>
+        <v>39.6</v>
       </c>
       <c r="E31" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="F31" t="n">
-        <v>4194.1068</v>
+        <v>2400</v>
       </c>
       <c r="G31" t="n">
-        <v>40.42666666666665</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H31" t="n">
-        <v>39.80166666666668</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,40 +1611,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="C32" t="n">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="D32" t="n">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="E32" t="n">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="F32" t="n">
-        <v>1445.9999</v>
+        <v>12316.8669</v>
       </c>
       <c r="G32" t="n">
-        <v>40.51999999999998</v>
+        <v>599723.5415545913</v>
       </c>
       <c r="H32" t="n">
-        <v>39.82166666666668</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1684,40 +1650,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="C33" t="n">
-        <v>40.8</v>
+        <v>39.8</v>
       </c>
       <c r="D33" t="n">
-        <v>40.8</v>
+        <v>39.8</v>
       </c>
       <c r="E33" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="F33" t="n">
-        <v>19510.6439</v>
+        <v>24150</v>
       </c>
       <c r="G33" t="n">
-        <v>40.57333333333331</v>
+        <v>623873.5415545913</v>
       </c>
       <c r="H33" t="n">
-        <v>39.84500000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,40 +1689,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="C34" t="n">
-        <v>40.6</v>
+        <v>39.8</v>
       </c>
       <c r="D34" t="n">
-        <v>40.6</v>
+        <v>39.8</v>
       </c>
       <c r="E34" t="n">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="F34" t="n">
-        <v>2239.661825615764</v>
+        <v>69553.9927</v>
       </c>
       <c r="G34" t="n">
-        <v>40.57999999999998</v>
+        <v>623873.5415545913</v>
       </c>
       <c r="H34" t="n">
-        <v>39.86333333333334</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,40 +1728,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.5</v>
+        <v>39.8</v>
       </c>
       <c r="C35" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>40.8</v>
+        <v>40</v>
       </c>
       <c r="E35" t="n">
-        <v>40.3</v>
+        <v>39.8</v>
       </c>
       <c r="F35" t="n">
-        <v>28219.213</v>
+        <v>59110.4455</v>
       </c>
       <c r="G35" t="n">
-        <v>40.59999999999998</v>
+        <v>682983.9870545913</v>
       </c>
       <c r="H35" t="n">
-        <v>39.87833333333334</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1810,40 +1767,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="E36" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="F36" t="n">
-        <v>1635.861</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n">
-        <v>40.59333333333331</v>
+        <v>682983.9870545913</v>
       </c>
       <c r="H36" t="n">
-        <v>39.89166666666668</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1852,40 +1806,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.3</v>
+        <v>39.7</v>
       </c>
       <c r="C37" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="D37" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="E37" t="n">
-        <v>40.3</v>
+        <v>39.7</v>
       </c>
       <c r="F37" t="n">
-        <v>13166.6458</v>
+        <v>49.875</v>
       </c>
       <c r="G37" t="n">
-        <v>40.59333333333331</v>
+        <v>682934.1120545913</v>
       </c>
       <c r="H37" t="n">
-        <v>39.91500000000001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1894,40 +1845,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.9</v>
+        <v>39.4</v>
       </c>
       <c r="C38" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="D38" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="E38" t="n">
-        <v>40.9</v>
+        <v>39.4</v>
       </c>
       <c r="F38" t="n">
-        <v>17053.87517694175</v>
+        <v>3959.425</v>
       </c>
       <c r="G38" t="n">
-        <v>40.61333333333332</v>
+        <v>678974.6870545913</v>
       </c>
       <c r="H38" t="n">
-        <v>39.94333333333335</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,40 +1884,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
+        <v>39.5</v>
       </c>
       <c r="C39" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="D39" t="n">
-        <v>41.2</v>
+        <v>39.5</v>
       </c>
       <c r="E39" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F39" t="n">
-        <v>159401.5631365854</v>
+        <v>9315.199000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>40.64666666666665</v>
+        <v>678974.6870545913</v>
       </c>
       <c r="H39" t="n">
-        <v>39.97166666666668</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,40 +1923,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="C40" t="n">
-        <v>41.5</v>
+        <v>39.4</v>
       </c>
       <c r="D40" t="n">
-        <v>41.8</v>
+        <v>39.4</v>
       </c>
       <c r="E40" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F40" t="n">
-        <v>178545.6350449761</v>
+        <v>5972.232</v>
       </c>
       <c r="G40" t="n">
-        <v>40.69999999999997</v>
+        <v>678974.6870545913</v>
       </c>
       <c r="H40" t="n">
-        <v>40.00500000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2020,76 +1962,80 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="C41" t="n">
-        <v>41.2</v>
+        <v>39.3</v>
       </c>
       <c r="D41" t="n">
-        <v>41.8</v>
+        <v>39.3</v>
       </c>
       <c r="E41" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="F41" t="n">
-        <v>73677.16250000001</v>
+        <v>1103.321</v>
       </c>
       <c r="G41" t="n">
-        <v>40.74666666666665</v>
+        <v>677871.3660545913</v>
       </c>
       <c r="H41" t="n">
-        <v>40.03000000000001</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>41.5</v>
+        <v>39.3</v>
       </c>
       <c r="C42" t="n">
-        <v>41.2</v>
+        <v>39.3</v>
       </c>
       <c r="D42" t="n">
-        <v>41.5</v>
+        <v>39.3</v>
       </c>
       <c r="E42" t="n">
-        <v>41.2</v>
+        <v>39.3</v>
       </c>
       <c r="F42" t="n">
-        <v>6239.8911</v>
+        <v>16766.7015</v>
       </c>
       <c r="G42" t="n">
-        <v>40.79333333333332</v>
+        <v>677871.3660545913</v>
       </c>
       <c r="H42" t="n">
-        <v>40.05166666666667</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>39.3</v>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2098,36 +2044,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="C43" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="D43" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="E43" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="F43" t="n">
-        <v>10109.8066</v>
+        <v>1290.4715</v>
       </c>
       <c r="G43" t="n">
-        <v>40.85999999999999</v>
+        <v>676580.8945545913</v>
       </c>
       <c r="H43" t="n">
-        <v>40.08166666666668</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>39.3</v>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2136,36 +2085,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41.7</v>
+        <v>39.3</v>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="D44" t="n">
-        <v>41.7</v>
+        <v>39.3</v>
       </c>
       <c r="E44" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="F44" t="n">
-        <v>21285.923</v>
+        <v>1333.8931</v>
       </c>
       <c r="G44" t="n">
-        <v>40.88666666666665</v>
+        <v>677914.7876545913</v>
       </c>
       <c r="H44" t="n">
-        <v>40.10333333333335</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>39.2</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2174,36 +2126,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="C45" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="D45" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="E45" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="F45" t="n">
-        <v>65601.5678</v>
+        <v>50524.0585</v>
       </c>
       <c r="G45" t="n">
-        <v>40.91333333333332</v>
+        <v>627390.7291545912</v>
       </c>
       <c r="H45" t="n">
-        <v>40.12000000000001</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,36 +2165,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
-        <v>40.6</v>
+        <v>39.1</v>
       </c>
       <c r="D46" t="n">
-        <v>40.8</v>
+        <v>39.1</v>
       </c>
       <c r="E46" t="n">
-        <v>40.5</v>
+        <v>39</v>
       </c>
       <c r="F46" t="n">
-        <v>67443.0453</v>
+        <v>5490</v>
       </c>
       <c r="G46" t="n">
-        <v>40.89999999999999</v>
+        <v>632880.7291545912</v>
       </c>
       <c r="H46" t="n">
-        <v>40.13833333333334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,36 +2204,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40.7</v>
+        <v>39.2</v>
       </c>
       <c r="C47" t="n">
-        <v>40.7</v>
+        <v>40</v>
       </c>
       <c r="D47" t="n">
-        <v>40.7</v>
+        <v>40</v>
       </c>
       <c r="E47" t="n">
-        <v>40.7</v>
+        <v>39.2</v>
       </c>
       <c r="F47" t="n">
-        <v>4595.5975</v>
+        <v>101817.4535</v>
       </c>
       <c r="G47" t="n">
-        <v>40.91333333333333</v>
+        <v>734698.1826545913</v>
       </c>
       <c r="H47" t="n">
-        <v>40.15333333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,36 +2243,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40.7</v>
+        <v>39.9</v>
       </c>
       <c r="C48" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="D48" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="E48" t="n">
-        <v>40.7</v>
+        <v>39.9</v>
       </c>
       <c r="F48" t="n">
-        <v>2638.9233</v>
+        <v>96511.02469135802</v>
       </c>
       <c r="G48" t="n">
-        <v>40.90666666666667</v>
+        <v>831209.2073459493</v>
       </c>
       <c r="H48" t="n">
-        <v>40.17</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2326,36 +2282,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="C49" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="E49" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="F49" t="n">
-        <v>1087.8509</v>
+        <v>7228.5366</v>
       </c>
       <c r="G49" t="n">
-        <v>40.90666666666667</v>
+        <v>823980.6707459493</v>
       </c>
       <c r="H49" t="n">
-        <v>40.18166666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,36 +2321,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="C50" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="D50" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="E50" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="F50" t="n">
-        <v>1213.691</v>
+        <v>37265.9523</v>
       </c>
       <c r="G50" t="n">
-        <v>40.93333333333334</v>
+        <v>861246.6230459493</v>
       </c>
       <c r="H50" t="n">
-        <v>40.19666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2402,36 +2360,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="C51" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="D51" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="E51" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="F51" t="n">
-        <v>1594.1583</v>
+        <v>70572.4981</v>
       </c>
       <c r="G51" t="n">
-        <v>40.95333333333335</v>
+        <v>931819.1211459492</v>
       </c>
       <c r="H51" t="n">
-        <v>40.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2440,36 +2399,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="C52" t="n">
-        <v>40.5</v>
+        <v>40.9</v>
       </c>
       <c r="D52" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="E52" t="n">
         <v>40.5</v>
       </c>
       <c r="F52" t="n">
-        <v>1068.2563</v>
+        <v>131671.3261</v>
       </c>
       <c r="G52" t="n">
-        <v>40.92666666666668</v>
+        <v>931819.1211459492</v>
       </c>
       <c r="H52" t="n">
-        <v>40.22166666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,36 +2438,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.5</v>
+        <v>40.9</v>
       </c>
       <c r="C53" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="D53" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="E53" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="F53" t="n">
-        <v>11200.9653</v>
+        <v>134676.7215</v>
       </c>
       <c r="G53" t="n">
-        <v>40.90000000000001</v>
+        <v>797142.3996459492</v>
       </c>
       <c r="H53" t="n">
-        <v>40.23833333333332</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,36 +2477,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C54" t="n">
         <v>40.7</v>
       </c>
-      <c r="C54" t="n">
-        <v>40.5</v>
-      </c>
       <c r="D54" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E54" t="n">
         <v>40.7</v>
       </c>
-      <c r="E54" t="n">
-        <v>40.5</v>
-      </c>
       <c r="F54" t="n">
-        <v>8035.4012</v>
+        <v>3940</v>
       </c>
       <c r="G54" t="n">
-        <v>40.85333333333334</v>
+        <v>797142.3996459492</v>
       </c>
       <c r="H54" t="n">
-        <v>40.25166666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2554,36 +2516,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="C55" t="n">
         <v>40.5</v>
       </c>
       <c r="D55" t="n">
-        <v>40.5</v>
+        <v>41.1</v>
       </c>
       <c r="E55" t="n">
         <v>40.5</v>
       </c>
       <c r="F55" t="n">
-        <v>6043.4258</v>
+        <v>36385.5254</v>
       </c>
       <c r="G55" t="n">
-        <v>40.78666666666667</v>
+        <v>760756.8742459492</v>
       </c>
       <c r="H55" t="n">
-        <v>40.26666666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,36 +2555,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C56" t="n">
         <v>40.5</v>
       </c>
-      <c r="C56" t="n">
-        <v>40</v>
-      </c>
       <c r="D56" t="n">
+        <v>41</v>
+      </c>
+      <c r="E56" t="n">
         <v>40.5</v>
       </c>
-      <c r="E56" t="n">
-        <v>40</v>
-      </c>
       <c r="F56" t="n">
-        <v>107562.1806</v>
+        <v>53372.6217</v>
       </c>
       <c r="G56" t="n">
-        <v>40.70666666666667</v>
+        <v>760756.8742459492</v>
       </c>
       <c r="H56" t="n">
-        <v>40.27166666666666</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,36 +2594,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="C57" t="n">
-        <v>39.6</v>
+        <v>40.5</v>
       </c>
       <c r="D57" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="E57" t="n">
-        <v>39.6</v>
+        <v>40.5</v>
       </c>
       <c r="F57" t="n">
-        <v>46795.077</v>
+        <v>10103.4412</v>
       </c>
       <c r="G57" t="n">
-        <v>40.6</v>
+        <v>760756.8742459492</v>
       </c>
       <c r="H57" t="n">
-        <v>40.27</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2668,36 +2633,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="C58" t="n">
-        <v>39.9</v>
+        <v>40.6</v>
       </c>
       <c r="D58" t="n">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="E58" t="n">
-        <v>39.9</v>
+        <v>40.6</v>
       </c>
       <c r="F58" t="n">
-        <v>1222.3472</v>
+        <v>11744.5312</v>
       </c>
       <c r="G58" t="n">
-        <v>40.49333333333333</v>
+        <v>772501.4054459492</v>
       </c>
       <c r="H58" t="n">
-        <v>40.275</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,36 +2672,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="C59" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="D59" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="E59" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="F59" t="n">
-        <v>15500.4822</v>
+        <v>14234.682</v>
       </c>
       <c r="G59" t="n">
-        <v>40.41333333333333</v>
+        <v>758266.7234459491</v>
       </c>
       <c r="H59" t="n">
-        <v>40.27833333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2744,36 +2711,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="C60" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="D60" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="E60" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="F60" t="n">
-        <v>9600</v>
+        <v>4194.1068</v>
       </c>
       <c r="G60" t="n">
-        <v>40.35999999999999</v>
+        <v>762460.8302459491</v>
       </c>
       <c r="H60" t="n">
-        <v>40.28333333333334</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,36 +2750,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="C61" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="D61" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="E61" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="F61" t="n">
-        <v>13585.5273</v>
+        <v>1445.9999</v>
       </c>
       <c r="G61" t="n">
-        <v>40.30666666666665</v>
+        <v>761014.830345949</v>
       </c>
       <c r="H61" t="n">
-        <v>40.28666666666668</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2820,36 +2789,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
       <c r="C62" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="D62" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="E62" t="n">
-        <v>39.7</v>
+        <v>40.3</v>
       </c>
       <c r="F62" t="n">
-        <v>7886.1564</v>
+        <v>19510.6439</v>
       </c>
       <c r="G62" t="n">
-        <v>40.25333333333332</v>
+        <v>780525.4742459491</v>
       </c>
       <c r="H62" t="n">
-        <v>40.29166666666668</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2858,36 +2828,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>39.7</v>
+        <v>40.4</v>
       </c>
       <c r="C63" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="D63" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="E63" t="n">
-        <v>39.7</v>
+        <v>40.4</v>
       </c>
       <c r="F63" t="n">
-        <v>31269.528</v>
+        <v>2239.661825615764</v>
       </c>
       <c r="G63" t="n">
-        <v>40.19333333333331</v>
+        <v>778285.8124203333</v>
       </c>
       <c r="H63" t="n">
-        <v>40.29666666666669</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,36 +2867,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="D64" t="n">
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="E64" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="F64" t="n">
-        <v>103733.5156</v>
+        <v>28219.213</v>
       </c>
       <c r="G64" t="n">
-        <v>40.15333333333331</v>
+        <v>750066.5994203333</v>
       </c>
       <c r="H64" t="n">
-        <v>40.30000000000002</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,36 +2906,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="C65" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="D65" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="E65" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="F65" t="n">
-        <v>4504.4575</v>
+        <v>1635.861</v>
       </c>
       <c r="G65" t="n">
-        <v>40.0933333333333</v>
+        <v>750066.5994203333</v>
       </c>
       <c r="H65" t="n">
-        <v>40.30000000000002</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,36 +2945,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39.7</v>
+        <v>40.3</v>
       </c>
       <c r="C66" t="n">
-        <v>39.5</v>
+        <v>40.9</v>
       </c>
       <c r="D66" t="n">
-        <v>39.7</v>
+        <v>40.9</v>
       </c>
       <c r="E66" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="F66" t="n">
-        <v>15167.6444</v>
+        <v>13166.6458</v>
       </c>
       <c r="G66" t="n">
-        <v>40.01999999999997</v>
+        <v>763233.2452203333</v>
       </c>
       <c r="H66" t="n">
-        <v>40.29166666666668</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,36 +2984,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>39.8</v>
+        <v>40.9</v>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D67" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="E67" t="n">
-        <v>39.8</v>
+        <v>40.9</v>
       </c>
       <c r="F67" t="n">
-        <v>26700</v>
+        <v>17053.87517694175</v>
       </c>
       <c r="G67" t="n">
-        <v>39.98666666666664</v>
+        <v>780287.1203972751</v>
       </c>
       <c r="H67" t="n">
-        <v>40.29166666666668</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,36 +3023,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="C68" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="D68" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="E68" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F68" t="n">
-        <v>22461.2437</v>
+        <v>159401.5631365854</v>
       </c>
       <c r="G68" t="n">
-        <v>39.94666666666664</v>
+        <v>780287.1203972751</v>
       </c>
       <c r="H68" t="n">
-        <v>40.30000000000002</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3086,74 +3062,70 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>40.1</v>
+        <v>41.2</v>
       </c>
       <c r="C69" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="D69" t="n">
-        <v>40.1</v>
+        <v>41.8</v>
       </c>
       <c r="E69" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F69" t="n">
-        <v>12836.121</v>
+        <v>178545.6350449761</v>
       </c>
       <c r="G69" t="n">
-        <v>39.91333333333331</v>
+        <v>958832.7554422512</v>
       </c>
       <c r="H69" t="n">
-        <v>40.31000000000002</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>41.4</v>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>41.8</v>
       </c>
       <c r="E70" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F70" t="n">
-        <v>2890</v>
+        <v>73677.16250000001</v>
       </c>
       <c r="G70" t="n">
-        <v>39.87999999999997</v>
+        <v>885155.5929422512</v>
       </c>
       <c r="H70" t="n">
-        <v>40.32000000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,36 +3134,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="C71" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="E71" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="F71" t="n">
-        <v>3936.9854</v>
+        <v>6239.8911</v>
       </c>
       <c r="G71" t="n">
-        <v>39.87999999999997</v>
+        <v>885155.5929422512</v>
       </c>
       <c r="H71" t="n">
-        <v>40.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3200,36 +3169,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>39.8</v>
+        <v>41.5</v>
       </c>
       <c r="C72" t="n">
-        <v>39.9</v>
+        <v>41.5</v>
       </c>
       <c r="D72" t="n">
-        <v>39.9</v>
+        <v>41.5</v>
       </c>
       <c r="E72" t="n">
-        <v>39.6</v>
+        <v>41.5</v>
       </c>
       <c r="F72" t="n">
-        <v>24596.1053</v>
+        <v>10109.8066</v>
       </c>
       <c r="G72" t="n">
-        <v>39.89999999999997</v>
+        <v>895265.3995422513</v>
       </c>
       <c r="H72" t="n">
-        <v>40.34000000000001</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3238,36 +3204,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>41.7</v>
       </c>
       <c r="C73" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D73" t="n">
-        <v>40.1</v>
+        <v>41.7</v>
       </c>
       <c r="E73" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F73" t="n">
-        <v>3799</v>
+        <v>21285.923</v>
       </c>
       <c r="G73" t="n">
-        <v>39.91333333333331</v>
+        <v>873979.4765422513</v>
       </c>
       <c r="H73" t="n">
-        <v>40.35333333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3276,36 +3239,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="C74" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="D74" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="E74" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="F74" t="n">
-        <v>16492.2195</v>
+        <v>65601.5678</v>
       </c>
       <c r="G74" t="n">
-        <v>39.91999999999997</v>
+        <v>808377.9087422513</v>
       </c>
       <c r="H74" t="n">
-        <v>40.36500000000001</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3314,36 +3274,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="C75" t="n">
-        <v>39.4</v>
+        <v>40.6</v>
       </c>
       <c r="D75" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="E75" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="F75" t="n">
-        <v>31490</v>
+        <v>67443.0453</v>
       </c>
       <c r="G75" t="n">
-        <v>39.88666666666664</v>
+        <v>740934.8634422513</v>
       </c>
       <c r="H75" t="n">
-        <v>40.36666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,36 +3309,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="C76" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="D76" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="E76" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="F76" t="n">
-        <v>1095.7005</v>
+        <v>4595.5975</v>
       </c>
       <c r="G76" t="n">
-        <v>39.88666666666664</v>
+        <v>745530.4609422514</v>
       </c>
       <c r="H76" t="n">
-        <v>40.38000000000001</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,36 +3344,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="C77" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="D77" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="E77" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="F77" t="n">
-        <v>1534.5864</v>
+        <v>2638.9233</v>
       </c>
       <c r="G77" t="n">
-        <v>39.88666666666664</v>
+        <v>745530.4609422514</v>
       </c>
       <c r="H77" t="n">
-        <v>40.39333333333335</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3428,36 +3379,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>39.6</v>
+        <v>40.6</v>
       </c>
       <c r="C78" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="D78" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="E78" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="F78" t="n">
-        <v>34645.774</v>
+        <v>1087.8509</v>
       </c>
       <c r="G78" t="n">
-        <v>39.88666666666664</v>
+        <v>744442.6100422514</v>
       </c>
       <c r="H78" t="n">
-        <v>40.39000000000001</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3466,36 +3414,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="C79" t="n">
-        <v>39.5</v>
+        <v>40.7</v>
       </c>
       <c r="D79" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="E79" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="F79" t="n">
-        <v>18870.8769</v>
+        <v>1213.691</v>
       </c>
       <c r="G79" t="n">
-        <v>39.85333333333331</v>
+        <v>745656.3010422514</v>
       </c>
       <c r="H79" t="n">
-        <v>40.37333333333335</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,36 +3449,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="C80" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="D80" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="E80" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="F80" t="n">
-        <v>19304.3305</v>
+        <v>1594.1583</v>
       </c>
       <c r="G80" t="n">
-        <v>39.83333333333331</v>
+        <v>744062.1427422514</v>
       </c>
       <c r="H80" t="n">
-        <v>40.36500000000002</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,36 +3484,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="C81" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="D81" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="E81" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="F81" t="n">
-        <v>24505.0646</v>
+        <v>1068.2563</v>
       </c>
       <c r="G81" t="n">
-        <v>39.81999999999997</v>
+        <v>742993.8864422514</v>
       </c>
       <c r="H81" t="n">
-        <v>40.34666666666669</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3580,36 +3519,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="C82" t="n">
-        <v>39.4</v>
+        <v>40.8</v>
       </c>
       <c r="D82" t="n">
-        <v>39.4</v>
+        <v>40.8</v>
       </c>
       <c r="E82" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="F82" t="n">
-        <v>4063.2994</v>
+        <v>11200.9653</v>
       </c>
       <c r="G82" t="n">
-        <v>39.77999999999997</v>
+        <v>754194.8517422514</v>
       </c>
       <c r="H82" t="n">
-        <v>40.32166666666669</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,36 +3554,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="C83" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="D83" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="E83" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="F83" t="n">
-        <v>1166.9733</v>
+        <v>8035.4012</v>
       </c>
       <c r="G83" t="n">
-        <v>39.72666666666664</v>
+        <v>746159.4505422515</v>
       </c>
       <c r="H83" t="n">
-        <v>40.29666666666669</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,36 +3589,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="C84" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="D84" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="E84" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="F84" t="n">
-        <v>8146</v>
+        <v>6043.4258</v>
       </c>
       <c r="G84" t="n">
-        <v>39.67999999999996</v>
+        <v>746159.4505422515</v>
       </c>
       <c r="H84" t="n">
-        <v>40.27333333333335</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3694,36 +3624,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="C85" t="n">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="E85" t="n">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="F85" t="n">
-        <v>50000</v>
+        <v>107562.1806</v>
       </c>
       <c r="G85" t="n">
-        <v>39.62666666666664</v>
+        <v>638597.2699422515</v>
       </c>
       <c r="H85" t="n">
-        <v>40.24833333333336</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,36 +3659,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>39.2</v>
+        <v>40.3</v>
       </c>
       <c r="C86" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="D86" t="n">
-        <v>39.2</v>
+        <v>40.3</v>
       </c>
       <c r="E86" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="F86" t="n">
-        <v>27194.8677</v>
+        <v>46795.077</v>
       </c>
       <c r="G86" t="n">
-        <v>39.5733333333333</v>
+        <v>591802.1929422515</v>
       </c>
       <c r="H86" t="n">
-        <v>40.22666666666669</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,36 +3694,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="C87" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="D87" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="E87" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="F87" t="n">
-        <v>50552.3538</v>
+        <v>1222.3472</v>
       </c>
       <c r="G87" t="n">
-        <v>39.5333333333333</v>
+        <v>593024.5401422514</v>
       </c>
       <c r="H87" t="n">
-        <v>40.20666666666669</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,36 +3729,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="C88" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="D88" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="E88" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="F88" t="n">
-        <v>1017.0223</v>
+        <v>15500.4822</v>
       </c>
       <c r="G88" t="n">
-        <v>39.47333333333331</v>
+        <v>577524.0579422514</v>
       </c>
       <c r="H88" t="n">
-        <v>40.18500000000002</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,36 +3764,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="C89" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="D89" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="E89" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="F89" t="n">
-        <v>7905</v>
+        <v>9600</v>
       </c>
       <c r="G89" t="n">
-        <v>39.42666666666664</v>
+        <v>587124.0579422514</v>
       </c>
       <c r="H89" t="n">
-        <v>40.16166666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,36 +3799,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="C90" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="D90" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="E90" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="F90" t="n">
-        <v>1253.148</v>
+        <v>13585.5273</v>
       </c>
       <c r="G90" t="n">
-        <v>39.41333333333331</v>
+        <v>573538.5306422515</v>
       </c>
       <c r="H90" t="n">
-        <v>40.14333333333335</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,36 +3834,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C91" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="D91" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="E91" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F91" t="n">
-        <v>3925.263</v>
+        <v>7886.1564</v>
       </c>
       <c r="G91" t="n">
-        <v>39.37333333333332</v>
+        <v>581424.6870422515</v>
       </c>
       <c r="H91" t="n">
-        <v>40.11666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,36 +3869,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C92" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="D92" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="E92" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F92" t="n">
-        <v>12414.9288</v>
+        <v>31269.528</v>
       </c>
       <c r="G92" t="n">
-        <v>39.32666666666666</v>
+        <v>550155.1590422514</v>
       </c>
       <c r="H92" t="n">
-        <v>40.09500000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,36 +3904,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="C93" t="n">
-        <v>39.1</v>
+        <v>40</v>
       </c>
       <c r="D93" t="n">
-        <v>39.1</v>
+        <v>40.1</v>
       </c>
       <c r="E93" t="n">
-        <v>39.1</v>
+        <v>39.5</v>
       </c>
       <c r="F93" t="n">
-        <v>18994.3001</v>
+        <v>103733.5156</v>
       </c>
       <c r="G93" t="n">
-        <v>39.27999999999999</v>
+        <v>653888.6746422515</v>
       </c>
       <c r="H93" t="n">
-        <v>40.06666666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,36 +3939,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="C94" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="D94" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="E94" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="F94" t="n">
-        <v>12224.5954</v>
+        <v>4504.4575</v>
       </c>
       <c r="G94" t="n">
-        <v>39.25333333333333</v>
+        <v>649384.2171422514</v>
       </c>
       <c r="H94" t="n">
-        <v>40.04166666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,40 +3974,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="C95" t="n">
-        <v>39.1</v>
+        <v>39.5</v>
       </c>
       <c r="D95" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="E95" t="n">
-        <v>39.1</v>
+        <v>39.5</v>
       </c>
       <c r="F95" t="n">
-        <v>1340.6274</v>
+        <v>15167.6444</v>
       </c>
       <c r="G95" t="n">
-        <v>39.22666666666667</v>
+        <v>634216.5727422514</v>
       </c>
       <c r="H95" t="n">
-        <v>40.02166666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="L95" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,42 +4009,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="C96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E96" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="F96" t="n">
-        <v>2254.7845</v>
+        <v>26700</v>
       </c>
       <c r="G96" t="n">
-        <v>39.20666666666667</v>
+        <v>660916.5727422514</v>
       </c>
       <c r="H96" t="n">
-        <v>39.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,44 +4044,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="C97" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="D97" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="E97" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="F97" t="n">
-        <v>1343.0445</v>
+        <v>22461.2437</v>
       </c>
       <c r="G97" t="n">
-        <v>39.19333333333334</v>
+        <v>683377.8164422514</v>
       </c>
       <c r="H97" t="n">
-        <v>39.97166666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>39</v>
-      </c>
-      <c r="L97" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,44 +4079,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39</v>
+        <v>40.1</v>
       </c>
       <c r="C98" t="n">
-        <v>39.1</v>
+        <v>40</v>
       </c>
       <c r="D98" t="n">
-        <v>39.1</v>
+        <v>40.1</v>
       </c>
       <c r="E98" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F98" t="n">
-        <v>21082.7442</v>
+        <v>12836.121</v>
       </c>
       <c r="G98" t="n">
-        <v>39.17333333333334</v>
+        <v>670541.6954422514</v>
       </c>
       <c r="H98" t="n">
-        <v>39.93666666666665</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L98" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,44 +4114,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C99" t="n">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="D99" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E99" t="n">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="F99" t="n">
-        <v>109098.6765</v>
+        <v>2890</v>
       </c>
       <c r="G99" t="n">
-        <v>39.14000000000001</v>
+        <v>670541.6954422514</v>
       </c>
       <c r="H99" t="n">
-        <v>39.89666666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="L99" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,42 +4149,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="C100" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="D100" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="E100" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="F100" t="n">
-        <v>8328.363499999999</v>
+        <v>3936.9854</v>
       </c>
       <c r="G100" t="n">
-        <v>39.12</v>
+        <v>670541.6954422514</v>
       </c>
       <c r="H100" t="n">
-        <v>39.85333333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,42 +4184,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>38.9</v>
+        <v>39.8</v>
       </c>
       <c r="C101" t="n">
-        <v>38.9</v>
+        <v>39.9</v>
       </c>
       <c r="D101" t="n">
-        <v>38.9</v>
+        <v>39.9</v>
       </c>
       <c r="E101" t="n">
-        <v>38.9</v>
+        <v>39.6</v>
       </c>
       <c r="F101" t="n">
-        <v>2269.8437</v>
+        <v>24596.1053</v>
       </c>
       <c r="G101" t="n">
-        <v>39.1</v>
+        <v>645945.5901422513</v>
       </c>
       <c r="H101" t="n">
-        <v>39.815</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,42 +4219,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="C102" t="n">
-        <v>38.9</v>
+        <v>40.1</v>
       </c>
       <c r="D102" t="n">
-        <v>38.9</v>
+        <v>40.1</v>
       </c>
       <c r="E102" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="F102" t="n">
-        <v>12184.4568</v>
+        <v>3799</v>
       </c>
       <c r="G102" t="n">
-        <v>39.07333333333334</v>
+        <v>649744.5901422513</v>
       </c>
       <c r="H102" t="n">
-        <v>39.77666666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,44 +4254,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
       <c r="C103" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
       <c r="D103" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
       <c r="E103" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
       <c r="F103" t="n">
-        <v>1350.439</v>
+        <v>16492.2195</v>
       </c>
       <c r="G103" t="n">
-        <v>39.04666666666666</v>
+        <v>633252.3706422513</v>
       </c>
       <c r="H103" t="n">
-        <v>39.73166666666668</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="L103" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,44 +4289,1048 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>31490</v>
+      </c>
+      <c r="G104" t="n">
+        <v>601762.3706422513</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1095.7005</v>
+      </c>
+      <c r="G105" t="n">
+        <v>602858.0711422514</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1534.5864</v>
+      </c>
+      <c r="G106" t="n">
+        <v>604392.6575422514</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="D107" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="E107" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>34645.774</v>
+      </c>
+      <c r="G107" t="n">
+        <v>569746.8835422514</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18870.8769</v>
+      </c>
+      <c r="G108" t="n">
+        <v>550876.0066422514</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19304.3305</v>
+      </c>
+      <c r="G109" t="n">
+        <v>550876.0066422514</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>24505.0646</v>
+      </c>
+      <c r="G110" t="n">
+        <v>526370.9420422514</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C111" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4063.2994</v>
+      </c>
+      <c r="G111" t="n">
+        <v>530434.2414422514</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1166.9733</v>
+      </c>
+      <c r="G112" t="n">
+        <v>530434.2414422514</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8146</v>
+      </c>
+      <c r="G113" t="n">
+        <v>522288.2414422514</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E114" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>472288.2414422514</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>27194.8677</v>
+      </c>
+      <c r="G115" t="n">
+        <v>472288.2414422514</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50552.3538</v>
+      </c>
+      <c r="G116" t="n">
+        <v>522840.5952422514</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1017.0223</v>
+      </c>
+      <c r="G117" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7905</v>
+      </c>
+      <c r="G118" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1253.148</v>
+      </c>
+      <c r="G119" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3925.263</v>
+      </c>
+      <c r="G120" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>12414.9288</v>
+      </c>
+      <c r="G121" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18994.3001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>502829.2728422513</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12224.5954</v>
+      </c>
+      <c r="G123" t="n">
+        <v>502829.2728422513</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1340.6274</v>
+      </c>
+      <c r="G124" t="n">
+        <v>502829.2728422513</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>39</v>
+      </c>
+      <c r="C125" t="n">
+        <v>39</v>
+      </c>
+      <c r="D125" t="n">
+        <v>39</v>
+      </c>
+      <c r="E125" t="n">
+        <v>39</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2254.7845</v>
+      </c>
+      <c r="G125" t="n">
+        <v>500574.4883422513</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1343.0445</v>
+      </c>
+      <c r="G126" t="n">
+        <v>501917.5328422514</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>39</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>39</v>
+      </c>
+      <c r="F127" t="n">
+        <v>21082.7442</v>
+      </c>
+      <c r="G127" t="n">
+        <v>480834.7886422513</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>39</v>
+      </c>
+      <c r="C128" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>39</v>
+      </c>
+      <c r="E128" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>109098.6765</v>
+      </c>
+      <c r="G128" t="n">
+        <v>371736.1121422513</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>38.9</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C129" t="n">
         <v>38.9</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D129" t="n">
         <v>38.9</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E129" t="n">
         <v>38.9</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F129" t="n">
+        <v>8328.363499999999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>380064.4756422513</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2269.8437</v>
+      </c>
+      <c r="G130" t="n">
+        <v>380064.4756422513</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12184.4568</v>
+      </c>
+      <c r="G131" t="n">
+        <v>380064.4756422513</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1350.439</v>
+      </c>
+      <c r="G132" t="n">
+        <v>378714.0366422513</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F133" t="n">
         <v>1350</v>
       </c>
-      <c r="G104" t="n">
-        <v>39.02666666666666</v>
-      </c>
-      <c r="H104" t="n">
-        <v>39.69666666666668</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="L104" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="G133" t="n">
+        <v>380064.0366422513</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest LRC.xlsx
+++ b/BackTest/2019-10-16 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,6 +509,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -585,6 +593,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -626,6 +635,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -667,6 +677,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,6 +717,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -745,6 +757,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,6 +797,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -823,6 +837,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,6 +877,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -901,6 +917,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,6 +957,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -979,6 +997,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,6 +1037,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1057,6 +1077,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1096,6 +1117,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1135,6 +1157,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,6 +1197,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1215,6 +1239,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1254,6 +1279,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1293,6 +1319,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1332,6 +1359,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1371,6 +1399,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1410,6 +1439,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1449,6 +1479,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1488,6 +1519,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1527,6 +1559,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1566,6 +1599,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1605,6 +1639,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1644,6 +1679,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1683,6 +1719,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1722,6 +1759,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1761,6 +1799,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1800,6 +1839,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1839,6 +1879,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1878,6 +1919,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1917,6 +1959,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1956,6 +1999,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1997,6 +2041,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2038,6 +2083,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2079,6 +2125,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2120,6 +2167,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2159,6 +2207,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2198,6 +2247,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2237,6 +2287,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2276,6 +2327,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2315,6 +2367,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2354,6 +2407,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2393,6 +2447,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2432,6 +2487,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2471,6 +2527,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2510,6 +2567,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2549,6 +2607,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2588,6 +2647,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2627,6 +2687,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2666,6 +2727,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2705,6 +2767,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2744,6 +2807,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2783,6 +2847,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2822,6 +2887,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2861,6 +2927,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2900,6 +2967,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2939,6 +3007,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2978,6 +3047,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3017,6 +3087,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3044,17 +3115,18 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>1.00763358778626</v>
       </c>
     </row>
     <row r="69">
@@ -3087,12 +3159,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3128,6 +3199,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3163,6 +3235,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3198,6 +3271,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3233,6 +3307,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3268,6 +3343,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3295,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3303,6 +3379,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3330,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3338,6 +3415,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3365,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3373,6 +3451,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3400,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3408,6 +3487,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3435,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3443,6 +3523,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3470,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3478,6 +3559,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3513,6 +3595,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3548,6 +3631,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3575,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3583,6 +3667,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3610,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3618,6 +3703,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3653,6 +3739,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3688,6 +3775,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3723,6 +3811,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3758,6 +3847,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3793,6 +3883,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3828,6 +3919,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3863,6 +3955,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3898,6 +3991,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3933,6 +4027,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3968,6 +4063,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4003,6 +4099,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4038,6 +4135,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4073,6 +4171,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4108,6 +4207,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4143,6 +4243,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4178,6 +4279,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4213,6 +4315,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4248,6 +4351,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4283,6 +4387,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4318,6 +4423,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4353,6 +4459,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4388,6 +4495,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4423,6 +4531,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4458,6 +4567,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4493,6 +4603,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4528,6 +4639,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4563,6 +4675,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4598,6 +4711,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4633,6 +4747,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4668,6 +4783,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4703,6 +4819,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4738,6 +4855,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4773,6 +4891,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4808,6 +4927,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4843,6 +4963,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4878,6 +4999,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4913,6 +5035,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4948,6 +5071,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4983,6 +5107,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5018,6 +5143,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5053,6 +5179,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5088,6 +5215,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5123,6 +5251,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5158,6 +5287,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5193,6 +5323,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5228,6 +5359,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5263,6 +5395,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5298,6 +5431,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5333,6 +5467,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-16 BackTest LRC.xlsx
+++ b/BackTest/2019-10-16 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="C2" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="D2" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="E2" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="F2" t="n">
-        <v>6648.0903</v>
+        <v>1156.7437</v>
       </c>
       <c r="G2" t="n">
-        <v>468300.0919545913</v>
+        <v>363604.7124438144</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="C3" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="D3" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="E3" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1090.981</v>
+        <v>15700.7273</v>
       </c>
       <c r="G3" t="n">
-        <v>469391.0729545913</v>
+        <v>379305.4397438145</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -516,32 +516,30 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="C4" t="n">
-        <v>39.4</v>
+        <v>40.2</v>
       </c>
       <c r="D4" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="E4" t="n">
-        <v>38.9</v>
+        <v>40.1</v>
       </c>
       <c r="F4" t="n">
-        <v>87235.0385</v>
+        <v>2190.7913</v>
       </c>
       <c r="G4" t="n">
-        <v>382156.0344545913</v>
+        <v>379305.4397438145</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
@@ -558,32 +556,30 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="C5" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="D5" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="E5" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>382199.0344545913</v>
+        <v>379305.4397438145</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -600,32 +596,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="C6" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="D6" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="E6" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="F6" t="n">
-        <v>54</v>
+        <v>1258.992</v>
       </c>
       <c r="G6" t="n">
-        <v>382199.0344545913</v>
+        <v>378046.4477438144</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -642,32 +636,30 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="C7" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="D7" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="E7" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="F7" t="n">
-        <v>26929.889</v>
+        <v>2316.0929</v>
       </c>
       <c r="G7" t="n">
-        <v>382199.0344545913</v>
+        <v>375730.3548438144</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>39.5</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -684,30 +676,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="D8" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10700.7382</v>
+      </c>
+      <c r="G8" t="n">
+        <v>365029.6166438144</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>39.6</v>
       </c>
-      <c r="E8" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12295.1357</v>
-      </c>
-      <c r="G8" t="n">
-        <v>382199.0344545913</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -724,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="C9" t="n">
         <v>39.5</v>
@@ -733,21 +727,23 @@
         <v>39.6</v>
       </c>
       <c r="E9" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="F9" t="n">
-        <v>3425.9999</v>
+        <v>12195.0849</v>
       </c>
       <c r="G9" t="n">
-        <v>382199.0344545913</v>
+        <v>377224.7015438144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -764,30 +760,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="C10" t="n">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="D10" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="E10" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="F10" t="n">
-        <v>6930.2461</v>
+        <v>8315.0849</v>
       </c>
       <c r="G10" t="n">
-        <v>389129.2805545913</v>
+        <v>368909.6166438144</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>39.5</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
@@ -804,30 +802,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.7</v>
+        <v>39.3</v>
       </c>
       <c r="C11" t="n">
-        <v>39.9</v>
+        <v>39.1</v>
       </c>
       <c r="D11" t="n">
-        <v>39.9</v>
+        <v>39.3</v>
       </c>
       <c r="E11" t="n">
-        <v>39.7</v>
+        <v>39.1</v>
       </c>
       <c r="F11" t="n">
-        <v>118572.5144</v>
+        <v>24167.6276</v>
       </c>
       <c r="G11" t="n">
-        <v>507701.7949545913</v>
+        <v>344741.9890438144</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -844,30 +844,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39.7</v>
+        <v>39.1</v>
       </c>
       <c r="C12" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>39.7</v>
+        <v>39.1</v>
       </c>
       <c r="E12" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="F12" t="n">
-        <v>2345.7344</v>
+        <v>12916.0512</v>
       </c>
       <c r="G12" t="n">
-        <v>505356.0605545913</v>
+        <v>331825.9378438144</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -884,30 +886,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>39.6</v>
+        <v>38.9</v>
       </c>
       <c r="C13" t="n">
-        <v>39.7</v>
+        <v>38.9</v>
       </c>
       <c r="D13" t="n">
-        <v>39.7</v>
+        <v>38.9</v>
       </c>
       <c r="E13" t="n">
-        <v>39.6</v>
+        <v>38.9</v>
       </c>
       <c r="F13" t="n">
-        <v>5976.0794</v>
+        <v>8850</v>
       </c>
       <c r="G13" t="n">
-        <v>505356.0605545913</v>
+        <v>322975.9378438144</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>39</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -924,30 +928,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="D14" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="E14" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>2878.2481</v>
+        <v>17274.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>505356.0605545913</v>
+        <v>340250.9377438144</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>38.9</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -964,30 +970,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="C15" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="D15" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="E15" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>16700.82121077694</v>
       </c>
       <c r="G15" t="n">
-        <v>505156.0605545913</v>
+        <v>356951.7589545914</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>39.8</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1004,22 +1012,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39.5</v>
+        <v>39.2</v>
       </c>
       <c r="C16" t="n">
-        <v>39.8</v>
+        <v>39.2</v>
       </c>
       <c r="D16" t="n">
-        <v>39.8</v>
+        <v>39.2</v>
       </c>
       <c r="E16" t="n">
-        <v>39.5</v>
+        <v>39.2</v>
       </c>
       <c r="F16" t="n">
-        <v>23607.7528</v>
+        <v>2395.9101</v>
       </c>
       <c r="G16" t="n">
-        <v>528763.8133545913</v>
+        <v>354555.8488545914</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1044,30 +1052,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39.7</v>
+        <v>39.2</v>
       </c>
       <c r="C17" t="n">
-        <v>39.7</v>
+        <v>39.2</v>
       </c>
       <c r="D17" t="n">
-        <v>39.7</v>
+        <v>39.2</v>
       </c>
       <c r="E17" t="n">
-        <v>39.7</v>
+        <v>39.2</v>
       </c>
       <c r="F17" t="n">
-        <v>2475</v>
+        <v>4266.3157</v>
       </c>
       <c r="G17" t="n">
-        <v>526288.8133545913</v>
+        <v>354555.8488545914</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1084,30 +1094,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39.6</v>
+        <v>39.1</v>
       </c>
       <c r="C18" t="n">
-        <v>39.9</v>
+        <v>39.1</v>
       </c>
       <c r="D18" t="n">
-        <v>39.9</v>
+        <v>39.1</v>
       </c>
       <c r="E18" t="n">
-        <v>39.5</v>
+        <v>39.1</v>
       </c>
       <c r="F18" t="n">
-        <v>79001.7406</v>
+        <v>4260</v>
       </c>
       <c r="G18" t="n">
-        <v>605290.5539545913</v>
+        <v>350295.8488545914</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1124,30 +1136,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39.8</v>
+        <v>39.1</v>
       </c>
       <c r="C19" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="D19" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="E19" t="n">
-        <v>39.8</v>
+        <v>39.1</v>
       </c>
       <c r="F19" t="n">
-        <v>19200</v>
+        <v>96960.17230000001</v>
       </c>
       <c r="G19" t="n">
-        <v>586090.5539545913</v>
+        <v>447256.0211545913</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1164,30 +1178,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="C20" t="n">
         <v>39.8</v>
       </c>
       <c r="D20" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="F20" t="n">
-        <v>22848.9837</v>
+        <v>12760</v>
       </c>
       <c r="G20" t="n">
-        <v>586090.5539545913</v>
+        <v>460016.0211545913</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>39.7</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1210,26 +1226,24 @@
         <v>39.8</v>
       </c>
       <c r="D21" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="E21" t="n">
         <v>39.8</v>
       </c>
       <c r="F21" t="n">
-        <v>55500</v>
+        <v>121</v>
       </c>
       <c r="G21" t="n">
-        <v>586090.5539545913</v>
+        <v>460016.0211545913</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>39.8</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1246,22 +1260,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="C22" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="D22" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="E22" t="n">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="F22" t="n">
-        <v>11836.8059</v>
+        <v>20952.5604</v>
       </c>
       <c r="G22" t="n">
-        <v>586090.5539545913</v>
+        <v>439063.4607545913</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1286,22 +1300,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="C23" t="n">
         <v>39.7</v>
       </c>
       <c r="D23" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="E23" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1277.6908</v>
+        <v>32987.5976</v>
       </c>
       <c r="G23" t="n">
-        <v>584812.8631545913</v>
+        <v>472051.0583545913</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1326,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="C24" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D24" t="n">
         <v>39.6</v>
       </c>
-      <c r="D24" t="n">
-        <v>39.7</v>
-      </c>
       <c r="E24" t="n">
-        <v>39.6</v>
+        <v>39.2</v>
       </c>
       <c r="F24" t="n">
-        <v>1872.4547</v>
+        <v>16692.0692</v>
       </c>
       <c r="G24" t="n">
-        <v>582940.4084545913</v>
+        <v>455358.9891545913</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1366,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="C25" t="n">
         <v>39.7</v>
@@ -1375,13 +1389,13 @@
         <v>39.7</v>
       </c>
       <c r="E25" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="F25" t="n">
-        <v>29700</v>
+        <v>88</v>
       </c>
       <c r="G25" t="n">
-        <v>612640.4084545913</v>
+        <v>455446.9891545913</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1409,19 +1423,19 @@
         <v>39.7</v>
       </c>
       <c r="C26" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D26" t="n">
         <v>39.7</v>
       </c>
-      <c r="D26" t="n">
-        <v>39.8</v>
-      </c>
       <c r="E26" t="n">
-        <v>39.7</v>
+        <v>39.4</v>
       </c>
       <c r="F26" t="n">
-        <v>98768</v>
+        <v>2394.4683</v>
       </c>
       <c r="G26" t="n">
-        <v>612640.4084545913</v>
+        <v>453052.5208545913</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1446,30 +1460,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="C27" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="D27" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="E27" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="F27" t="n">
-        <v>600</v>
+        <v>1068</v>
       </c>
       <c r="G27" t="n">
-        <v>612040.4084545913</v>
+        <v>451984.5208545913</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>39.5</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1486,22 +1502,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="C28" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="D28" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="E28" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="F28" t="n">
-        <v>4200</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>612040.4084545913</v>
+        <v>451984.5208545913</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1526,22 +1542,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="C29" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="D29" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="E29" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="F29" t="n">
-        <v>4653.92</v>
+        <v>13519.4808</v>
       </c>
       <c r="G29" t="n">
-        <v>612040.4084545913</v>
+        <v>465504.0016545913</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1569,27 +1585,29 @@
         <v>39.6</v>
       </c>
       <c r="C30" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="D30" t="n">
         <v>39.6</v>
       </c>
       <c r="E30" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="F30" t="n">
-        <v>4065.014</v>
+        <v>3852</v>
       </c>
       <c r="G30" t="n">
-        <v>612040.4084545913</v>
+        <v>461652.0016545913</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>39.5</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1606,22 +1624,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="C31" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="D31" t="n">
         <v>39.6</v>
       </c>
       <c r="E31" t="n">
-        <v>39.6</v>
+        <v>39.3</v>
       </c>
       <c r="F31" t="n">
-        <v>2400</v>
+        <v>6648.0903</v>
       </c>
       <c r="G31" t="n">
-        <v>612040.4084545913</v>
+        <v>468300.0919545913</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1646,7 +1664,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="C32" t="n">
         <v>39.5</v>
@@ -1655,13 +1673,13 @@
         <v>39.5</v>
       </c>
       <c r="E32" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="F32" t="n">
-        <v>12316.8669</v>
+        <v>1090.981</v>
       </c>
       <c r="G32" t="n">
-        <v>599723.5415545913</v>
+        <v>469391.0729545913</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1686,30 +1704,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="C33" t="n">
-        <v>39.8</v>
+        <v>39.4</v>
       </c>
       <c r="D33" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="E33" t="n">
-        <v>39.6</v>
+        <v>38.9</v>
       </c>
       <c r="F33" t="n">
-        <v>24150</v>
+        <v>87235.0385</v>
       </c>
       <c r="G33" t="n">
-        <v>623873.5415545913</v>
+        <v>382156.0344545913</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>39.5</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1726,22 +1746,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="C34" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="D34" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="E34" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="F34" t="n">
-        <v>69553.9927</v>
+        <v>43</v>
       </c>
       <c r="G34" t="n">
-        <v>623873.5415545913</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1766,22 +1786,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="E35" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="F35" t="n">
-        <v>59110.4455</v>
+        <v>54</v>
       </c>
       <c r="G35" t="n">
-        <v>682983.9870545913</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1806,22 +1826,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>39.4</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="E36" t="n">
-        <v>40</v>
+        <v>39.3</v>
       </c>
       <c r="F36" t="n">
-        <v>18</v>
+        <v>26929.889</v>
       </c>
       <c r="G36" t="n">
-        <v>682983.9870545913</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1846,22 +1866,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="C37" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="D37" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="E37" t="n">
-        <v>39.7</v>
+        <v>39.5</v>
       </c>
       <c r="F37" t="n">
-        <v>49.875</v>
+        <v>12295.1357</v>
       </c>
       <c r="G37" t="n">
-        <v>682934.1120545913</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1886,22 +1906,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="C38" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="D38" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="E38" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="F38" t="n">
-        <v>3959.425</v>
+        <v>3425.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>678974.6870545913</v>
+        <v>382199.0344545913</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1926,22 +1946,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="C39" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="D39" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="E39" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="F39" t="n">
-        <v>9315.199000000001</v>
+        <v>6930.2461</v>
       </c>
       <c r="G39" t="n">
-        <v>678974.6870545913</v>
+        <v>389129.2805545913</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1966,22 +1986,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="C40" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="D40" t="n">
-        <v>39.4</v>
+        <v>39.9</v>
       </c>
       <c r="E40" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="F40" t="n">
-        <v>5972.232</v>
+        <v>118572.5144</v>
       </c>
       <c r="G40" t="n">
-        <v>678974.6870545913</v>
+        <v>507701.7949545913</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2006,32 +2026,30 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="C41" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="D41" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="E41" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1103.321</v>
+        <v>2345.7344</v>
       </c>
       <c r="G41" t="n">
-        <v>677871.3660545913</v>
+        <v>505356.0605545913</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2048,32 +2066,30 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="C42" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="D42" t="n">
-        <v>39.3</v>
+        <v>39.7</v>
       </c>
       <c r="E42" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="F42" t="n">
-        <v>16766.7015</v>
+        <v>5976.0794</v>
       </c>
       <c r="G42" t="n">
-        <v>677871.3660545913</v>
+        <v>505356.0605545913</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2090,32 +2106,30 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C43" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="D43" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="E43" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F43" t="n">
-        <v>1290.4715</v>
+        <v>2878.2481</v>
       </c>
       <c r="G43" t="n">
-        <v>676580.8945545913</v>
+        <v>505356.0605545913</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2132,32 +2146,30 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="C44" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="D44" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="E44" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="F44" t="n">
-        <v>1333.8931</v>
+        <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>677914.7876545913</v>
+        <v>505156.0605545913</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2174,22 +2186,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="C45" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="D45" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="E45" t="n">
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="F45" t="n">
-        <v>50524.0585</v>
+        <v>23607.7528</v>
       </c>
       <c r="G45" t="n">
-        <v>627390.7291545912</v>
+        <v>528763.8133545913</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2214,22 +2226,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="C46" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="D46" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="E46" t="n">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="F46" t="n">
-        <v>5490</v>
+        <v>2475</v>
       </c>
       <c r="G46" t="n">
-        <v>632880.7291545912</v>
+        <v>526288.8133545913</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2254,22 +2266,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="D47" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="E47" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="F47" t="n">
-        <v>101817.4535</v>
+        <v>79001.7406</v>
       </c>
       <c r="G47" t="n">
-        <v>734698.1826545913</v>
+        <v>605290.5539545913</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2294,22 +2306,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="C48" t="n">
-        <v>40.5</v>
+        <v>39.8</v>
       </c>
       <c r="D48" t="n">
-        <v>40.5</v>
+        <v>39.8</v>
       </c>
       <c r="E48" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="F48" t="n">
-        <v>96511.02469135802</v>
+        <v>19200</v>
       </c>
       <c r="G48" t="n">
-        <v>831209.2073459493</v>
+        <v>586090.5539545913</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2334,22 +2346,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="E49" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="F49" t="n">
-        <v>7228.5366</v>
+        <v>22848.9837</v>
       </c>
       <c r="G49" t="n">
-        <v>823980.6707459493</v>
+        <v>586090.5539545913</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2374,22 +2386,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="C50" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="D50" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="E50" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="F50" t="n">
-        <v>37265.9523</v>
+        <v>55500</v>
       </c>
       <c r="G50" t="n">
-        <v>861246.6230459493</v>
+        <v>586090.5539545913</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2414,22 +2426,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="C51" t="n">
-        <v>40.9</v>
+        <v>39.8</v>
       </c>
       <c r="D51" t="n">
-        <v>40.9</v>
+        <v>39.8</v>
       </c>
       <c r="E51" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="F51" t="n">
-        <v>70572.4981</v>
+        <v>11836.8059</v>
       </c>
       <c r="G51" t="n">
-        <v>931819.1211459492</v>
+        <v>586090.5539545913</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2454,22 +2466,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.8</v>
+        <v>39.7</v>
       </c>
       <c r="C52" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="D52" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="E52" t="n">
-        <v>40.5</v>
+        <v>39.7</v>
       </c>
       <c r="F52" t="n">
-        <v>131671.3261</v>
+        <v>1277.6908</v>
       </c>
       <c r="G52" t="n">
-        <v>931819.1211459492</v>
+        <v>584812.8631545913</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2494,22 +2506,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="C53" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="D53" t="n">
-        <v>41.2</v>
+        <v>39.7</v>
       </c>
       <c r="E53" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="F53" t="n">
-        <v>134676.7215</v>
+        <v>1872.4547</v>
       </c>
       <c r="G53" t="n">
-        <v>797142.3996459492</v>
+        <v>582940.4084545913</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2534,22 +2546,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="C54" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="D54" t="n">
-        <v>41.1</v>
+        <v>39.7</v>
       </c>
       <c r="E54" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="F54" t="n">
-        <v>3940</v>
+        <v>29700</v>
       </c>
       <c r="G54" t="n">
-        <v>797142.3996459492</v>
+        <v>612640.4084545913</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2574,22 +2586,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40.6</v>
+        <v>39.7</v>
       </c>
       <c r="C55" t="n">
-        <v>40.5</v>
+        <v>39.7</v>
       </c>
       <c r="D55" t="n">
-        <v>41.1</v>
+        <v>39.8</v>
       </c>
       <c r="E55" t="n">
-        <v>40.5</v>
+        <v>39.7</v>
       </c>
       <c r="F55" t="n">
-        <v>36385.5254</v>
+        <v>98768</v>
       </c>
       <c r="G55" t="n">
-        <v>760756.8742459492</v>
+        <v>612640.4084545913</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2614,22 +2626,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40.9</v>
+        <v>39.6</v>
       </c>
       <c r="C56" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="D56" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="E56" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="F56" t="n">
-        <v>53372.6217</v>
+        <v>600</v>
       </c>
       <c r="G56" t="n">
-        <v>760756.8742459492</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2654,22 +2666,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="C57" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="D57" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="E57" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="F57" t="n">
-        <v>10103.4412</v>
+        <v>4200</v>
       </c>
       <c r="G57" t="n">
-        <v>760756.8742459492</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2694,22 +2706,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>40.9</v>
+        <v>39.6</v>
       </c>
       <c r="C58" t="n">
-        <v>40.6</v>
+        <v>39.6</v>
       </c>
       <c r="D58" t="n">
-        <v>40.9</v>
+        <v>39.6</v>
       </c>
       <c r="E58" t="n">
-        <v>40.6</v>
+        <v>39.5</v>
       </c>
       <c r="F58" t="n">
-        <v>11744.5312</v>
+        <v>4653.92</v>
       </c>
       <c r="G58" t="n">
-        <v>772501.4054459492</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2734,22 +2746,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="C59" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="D59" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="E59" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="F59" t="n">
-        <v>14234.682</v>
+        <v>4065.014</v>
       </c>
       <c r="G59" t="n">
-        <v>758266.7234459491</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2774,22 +2786,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="C60" t="n">
-        <v>40.8</v>
+        <v>39.6</v>
       </c>
       <c r="D60" t="n">
-        <v>40.8</v>
+        <v>39.6</v>
       </c>
       <c r="E60" t="n">
-        <v>40.7</v>
+        <v>39.6</v>
       </c>
       <c r="F60" t="n">
-        <v>4194.1068</v>
+        <v>2400</v>
       </c>
       <c r="G60" t="n">
-        <v>762460.8302459491</v>
+        <v>612040.4084545913</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2814,22 +2826,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="C61" t="n">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="D61" t="n">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="E61" t="n">
-        <v>40.5</v>
+        <v>39.5</v>
       </c>
       <c r="F61" t="n">
-        <v>1445.9999</v>
+        <v>12316.8669</v>
       </c>
       <c r="G61" t="n">
-        <v>761014.830345949</v>
+        <v>599723.5415545913</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2854,22 +2866,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.5</v>
+        <v>39.6</v>
       </c>
       <c r="C62" t="n">
-        <v>40.8</v>
+        <v>39.8</v>
       </c>
       <c r="D62" t="n">
-        <v>40.8</v>
+        <v>39.8</v>
       </c>
       <c r="E62" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="F62" t="n">
-        <v>19510.6439</v>
+        <v>24150</v>
       </c>
       <c r="G62" t="n">
-        <v>780525.4742459491</v>
+        <v>623873.5415545913</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2894,22 +2906,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="C63" t="n">
-        <v>40.6</v>
+        <v>39.8</v>
       </c>
       <c r="D63" t="n">
-        <v>40.6</v>
+        <v>39.8</v>
       </c>
       <c r="E63" t="n">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="F63" t="n">
-        <v>2239.661825615764</v>
+        <v>69553.9927</v>
       </c>
       <c r="G63" t="n">
-        <v>778285.8124203333</v>
+        <v>623873.5415545913</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2934,22 +2946,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40.5</v>
+        <v>39.8</v>
       </c>
       <c r="C64" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>40.8</v>
+        <v>40</v>
       </c>
       <c r="E64" t="n">
-        <v>40.3</v>
+        <v>39.8</v>
       </c>
       <c r="F64" t="n">
-        <v>28219.213</v>
+        <v>59110.4455</v>
       </c>
       <c r="G64" t="n">
-        <v>750066.5994203333</v>
+        <v>682983.9870545913</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2974,22 +2986,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="C65" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="F65" t="n">
-        <v>1635.861</v>
+        <v>18</v>
       </c>
       <c r="G65" t="n">
-        <v>750066.5994203333</v>
+        <v>682983.9870545913</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3014,22 +3026,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>40.3</v>
+        <v>39.7</v>
       </c>
       <c r="C66" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="D66" t="n">
-        <v>40.9</v>
+        <v>39.7</v>
       </c>
       <c r="E66" t="n">
-        <v>40.3</v>
+        <v>39.7</v>
       </c>
       <c r="F66" t="n">
-        <v>13166.6458</v>
+        <v>49.875</v>
       </c>
       <c r="G66" t="n">
-        <v>763233.2452203333</v>
+        <v>682934.1120545913</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3054,22 +3066,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40.9</v>
+        <v>39.4</v>
       </c>
       <c r="C67" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="D67" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="E67" t="n">
-        <v>40.9</v>
+        <v>39.4</v>
       </c>
       <c r="F67" t="n">
-        <v>17053.87517694175</v>
+        <v>3959.425</v>
       </c>
       <c r="G67" t="n">
-        <v>780287.1203972751</v>
+        <v>678974.6870545913</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3094,72 +3106,76 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41</v>
+        <v>39.5</v>
       </c>
       <c r="C68" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="D68" t="n">
-        <v>41.2</v>
+        <v>39.5</v>
       </c>
       <c r="E68" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F68" t="n">
-        <v>159401.5631365854</v>
+        <v>9315.199000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>780287.1203972751</v>
+        <v>678974.6870545913</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
-        <v>1.00763358778626</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="C69" t="n">
-        <v>41.5</v>
+        <v>39.4</v>
       </c>
       <c r="D69" t="n">
-        <v>41.8</v>
+        <v>39.4</v>
       </c>
       <c r="E69" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F69" t="n">
-        <v>178545.6350449761</v>
+        <v>5972.232</v>
       </c>
       <c r="G69" t="n">
-        <v>958832.7554422512</v>
+        <v>678974.6870545913</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3170,32 +3186,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="C70" t="n">
-        <v>41.2</v>
+        <v>39.3</v>
       </c>
       <c r="D70" t="n">
-        <v>41.8</v>
+        <v>39.3</v>
       </c>
       <c r="E70" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="F70" t="n">
-        <v>73677.16250000001</v>
+        <v>1103.321</v>
       </c>
       <c r="G70" t="n">
-        <v>885155.5929422512</v>
+        <v>677871.3660545913</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3206,32 +3226,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>41.5</v>
+        <v>39.3</v>
       </c>
       <c r="C71" t="n">
-        <v>41.2</v>
+        <v>39.3</v>
       </c>
       <c r="D71" t="n">
-        <v>41.5</v>
+        <v>39.3</v>
       </c>
       <c r="E71" t="n">
-        <v>41.2</v>
+        <v>39.3</v>
       </c>
       <c r="F71" t="n">
-        <v>6239.8911</v>
+        <v>16766.7015</v>
       </c>
       <c r="G71" t="n">
-        <v>885155.5929422512</v>
+        <v>677871.3660545913</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3242,32 +3266,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="C72" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="D72" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="E72" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="F72" t="n">
-        <v>10109.8066</v>
+        <v>1290.4715</v>
       </c>
       <c r="G72" t="n">
-        <v>895265.3995422513</v>
+        <v>676580.8945545913</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3278,32 +3306,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41.7</v>
+        <v>39.3</v>
       </c>
       <c r="C73" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="D73" t="n">
-        <v>41.7</v>
+        <v>39.3</v>
       </c>
       <c r="E73" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="F73" t="n">
-        <v>21285.923</v>
+        <v>1333.8931</v>
       </c>
       <c r="G73" t="n">
-        <v>873979.4765422513</v>
+        <v>677914.7876545913</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3314,32 +3346,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="C74" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="D74" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="E74" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="F74" t="n">
-        <v>65601.5678</v>
+        <v>50524.0585</v>
       </c>
       <c r="G74" t="n">
-        <v>808377.9087422513</v>
+        <v>627390.7291545912</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3350,32 +3386,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="C75" t="n">
-        <v>40.6</v>
+        <v>39.1</v>
       </c>
       <c r="D75" t="n">
-        <v>40.8</v>
+        <v>39.1</v>
       </c>
       <c r="E75" t="n">
-        <v>40.5</v>
+        <v>39</v>
       </c>
       <c r="F75" t="n">
-        <v>67443.0453</v>
+        <v>5490</v>
       </c>
       <c r="G75" t="n">
-        <v>740934.8634422513</v>
+        <v>632880.7291545912</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3386,32 +3426,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>40.7</v>
+        <v>39.2</v>
       </c>
       <c r="C76" t="n">
-        <v>40.7</v>
+        <v>40</v>
       </c>
       <c r="D76" t="n">
-        <v>40.7</v>
+        <v>40</v>
       </c>
       <c r="E76" t="n">
-        <v>40.7</v>
+        <v>39.2</v>
       </c>
       <c r="F76" t="n">
-        <v>4595.5975</v>
+        <v>101817.4535</v>
       </c>
       <c r="G76" t="n">
-        <v>745530.4609422514</v>
+        <v>734698.1826545913</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3422,32 +3466,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>40.7</v>
+        <v>39.9</v>
       </c>
       <c r="C77" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="D77" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="E77" t="n">
-        <v>40.7</v>
+        <v>39.9</v>
       </c>
       <c r="F77" t="n">
-        <v>2638.9233</v>
+        <v>96511.02469135802</v>
       </c>
       <c r="G77" t="n">
-        <v>745530.4609422514</v>
+        <v>831209.2073459493</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3458,32 +3506,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="C78" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="E78" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="F78" t="n">
-        <v>1087.8509</v>
+        <v>7228.5366</v>
       </c>
       <c r="G78" t="n">
-        <v>744442.6100422514</v>
+        <v>823980.6707459493</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3494,32 +3546,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="C79" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="D79" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="E79" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="F79" t="n">
-        <v>1213.691</v>
+        <v>37265.9523</v>
       </c>
       <c r="G79" t="n">
-        <v>745656.3010422514</v>
+        <v>861246.6230459493</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3530,32 +3586,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="C80" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="D80" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="E80" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="F80" t="n">
-        <v>1594.1583</v>
+        <v>70572.4981</v>
       </c>
       <c r="G80" t="n">
-        <v>744062.1427422514</v>
+        <v>931819.1211459492</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3566,22 +3626,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="C81" t="n">
-        <v>40.5</v>
+        <v>40.9</v>
       </c>
       <c r="D81" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="E81" t="n">
         <v>40.5</v>
       </c>
       <c r="F81" t="n">
-        <v>1068.2563</v>
+        <v>131671.3261</v>
       </c>
       <c r="G81" t="n">
-        <v>742993.8864422514</v>
+        <v>931819.1211459492</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3591,7 +3651,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3602,22 +3666,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>40.5</v>
+        <v>40.9</v>
       </c>
       <c r="C82" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="D82" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="E82" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="F82" t="n">
-        <v>11200.9653</v>
+        <v>134676.7215</v>
       </c>
       <c r="G82" t="n">
-        <v>754194.8517422514</v>
+        <v>797142.3996459492</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3627,7 +3691,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3638,32 +3706,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C83" t="n">
         <v>40.7</v>
       </c>
-      <c r="C83" t="n">
-        <v>40.5</v>
-      </c>
       <c r="D83" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E83" t="n">
         <v>40.7</v>
       </c>
-      <c r="E83" t="n">
-        <v>40.5</v>
-      </c>
       <c r="F83" t="n">
-        <v>8035.4012</v>
+        <v>3940</v>
       </c>
       <c r="G83" t="n">
-        <v>746159.4505422515</v>
+        <v>797142.3996459492</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3674,32 +3746,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="C84" t="n">
         <v>40.5</v>
       </c>
       <c r="D84" t="n">
-        <v>40.5</v>
+        <v>41.1</v>
       </c>
       <c r="E84" t="n">
         <v>40.5</v>
       </c>
       <c r="F84" t="n">
-        <v>6043.4258</v>
+        <v>36385.5254</v>
       </c>
       <c r="G84" t="n">
-        <v>746159.4505422515</v>
+        <v>760756.8742459492</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3710,22 +3786,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C85" t="n">
         <v>40.5</v>
       </c>
-      <c r="C85" t="n">
-        <v>40</v>
-      </c>
       <c r="D85" t="n">
+        <v>41</v>
+      </c>
+      <c r="E85" t="n">
         <v>40.5</v>
       </c>
-      <c r="E85" t="n">
-        <v>40</v>
-      </c>
       <c r="F85" t="n">
-        <v>107562.1806</v>
+        <v>53372.6217</v>
       </c>
       <c r="G85" t="n">
-        <v>638597.2699422515</v>
+        <v>760756.8742459492</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3735,7 +3811,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3746,22 +3826,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="C86" t="n">
-        <v>39.6</v>
+        <v>40.5</v>
       </c>
       <c r="D86" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="E86" t="n">
-        <v>39.6</v>
+        <v>40.5</v>
       </c>
       <c r="F86" t="n">
-        <v>46795.077</v>
+        <v>10103.4412</v>
       </c>
       <c r="G86" t="n">
-        <v>591802.1929422515</v>
+        <v>760756.8742459492</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3771,7 +3851,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3782,22 +3866,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="C87" t="n">
-        <v>39.9</v>
+        <v>40.6</v>
       </c>
       <c r="D87" t="n">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="E87" t="n">
-        <v>39.9</v>
+        <v>40.6</v>
       </c>
       <c r="F87" t="n">
-        <v>1222.3472</v>
+        <v>11744.5312</v>
       </c>
       <c r="G87" t="n">
-        <v>593024.5401422514</v>
+        <v>772501.4054459492</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3807,7 +3891,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3818,22 +3906,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="C88" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="D88" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="E88" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="F88" t="n">
-        <v>15500.4822</v>
+        <v>14234.682</v>
       </c>
       <c r="G88" t="n">
-        <v>577524.0579422514</v>
+        <v>758266.7234459491</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3843,7 +3931,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3854,22 +3946,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="C89" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="D89" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="E89" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="F89" t="n">
-        <v>9600</v>
+        <v>4194.1068</v>
       </c>
       <c r="G89" t="n">
-        <v>587124.0579422514</v>
+        <v>762460.8302459491</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3879,7 +3971,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3890,22 +3986,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="C90" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="D90" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="E90" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="F90" t="n">
-        <v>13585.5273</v>
+        <v>1445.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>573538.5306422515</v>
+        <v>761014.830345949</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3915,7 +4011,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3926,22 +4026,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
       <c r="C91" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="D91" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="E91" t="n">
-        <v>39.7</v>
+        <v>40.3</v>
       </c>
       <c r="F91" t="n">
-        <v>7886.1564</v>
+        <v>19510.6439</v>
       </c>
       <c r="G91" t="n">
-        <v>581424.6870422515</v>
+        <v>780525.4742459491</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3951,7 +4051,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3962,22 +4066,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>39.7</v>
+        <v>40.4</v>
       </c>
       <c r="C92" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="D92" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="E92" t="n">
-        <v>39.7</v>
+        <v>40.4</v>
       </c>
       <c r="F92" t="n">
-        <v>31269.528</v>
+        <v>2239.661825615764</v>
       </c>
       <c r="G92" t="n">
-        <v>550155.1590422514</v>
+        <v>778285.8124203333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3987,7 +4091,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3998,22 +4106,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="D93" t="n">
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="E93" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="F93" t="n">
-        <v>103733.5156</v>
+        <v>28219.213</v>
       </c>
       <c r="G93" t="n">
-        <v>653888.6746422515</v>
+        <v>750066.5994203333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4023,7 +4131,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4034,22 +4146,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="C94" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="D94" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="E94" t="n">
-        <v>39.8</v>
+        <v>40.3</v>
       </c>
       <c r="F94" t="n">
-        <v>4504.4575</v>
+        <v>1635.861</v>
       </c>
       <c r="G94" t="n">
-        <v>649384.2171422514</v>
+        <v>750066.5994203333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4059,7 +4171,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4070,22 +4186,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>39.7</v>
+        <v>40.3</v>
       </c>
       <c r="C95" t="n">
-        <v>39.5</v>
+        <v>40.9</v>
       </c>
       <c r="D95" t="n">
-        <v>39.7</v>
+        <v>40.9</v>
       </c>
       <c r="E95" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="F95" t="n">
-        <v>15167.6444</v>
+        <v>13166.6458</v>
       </c>
       <c r="G95" t="n">
-        <v>634216.5727422514</v>
+        <v>763233.2452203333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4095,7 +4211,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4106,22 +4226,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39.8</v>
+        <v>40.9</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D96" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="E96" t="n">
-        <v>39.8</v>
+        <v>40.9</v>
       </c>
       <c r="F96" t="n">
-        <v>26700</v>
+        <v>17053.87517694175</v>
       </c>
       <c r="G96" t="n">
-        <v>660916.5727422514</v>
+        <v>780287.1203972751</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4131,7 +4251,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4142,35 +4266,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="C97" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="D97" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="E97" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F97" t="n">
-        <v>22461.2437</v>
+        <v>159401.5631365854</v>
       </c>
       <c r="G97" t="n">
-        <v>683377.8164422514</v>
+        <v>780287.1203972751</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -4178,28 +4304,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>40.1</v>
+        <v>41.2</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="D98" t="n">
-        <v>40.1</v>
+        <v>41.8</v>
       </c>
       <c r="E98" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F98" t="n">
-        <v>12836.121</v>
+        <v>178545.6350449761</v>
       </c>
       <c r="G98" t="n">
-        <v>670541.6954422514</v>
+        <v>958832.7554422512</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4214,28 +4340,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>40</v>
+        <v>41.4</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D99" t="n">
-        <v>40</v>
+        <v>41.8</v>
       </c>
       <c r="E99" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F99" t="n">
-        <v>2890</v>
+        <v>73677.16250000001</v>
       </c>
       <c r="G99" t="n">
-        <v>670541.6954422514</v>
+        <v>885155.5929422512</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4250,28 +4376,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D100" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="E100" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="F100" t="n">
-        <v>3936.9854</v>
+        <v>6239.8911</v>
       </c>
       <c r="G100" t="n">
-        <v>670541.6954422514</v>
+        <v>885155.5929422512</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4286,28 +4412,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39.8</v>
+        <v>41.5</v>
       </c>
       <c r="C101" t="n">
-        <v>39.9</v>
+        <v>41.5</v>
       </c>
       <c r="D101" t="n">
-        <v>39.9</v>
+        <v>41.5</v>
       </c>
       <c r="E101" t="n">
-        <v>39.6</v>
+        <v>41.5</v>
       </c>
       <c r="F101" t="n">
-        <v>24596.1053</v>
+        <v>10109.8066</v>
       </c>
       <c r="G101" t="n">
-        <v>645945.5901422513</v>
+        <v>895265.3995422513</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4322,28 +4448,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>40</v>
+        <v>41.7</v>
       </c>
       <c r="C102" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D102" t="n">
-        <v>40.1</v>
+        <v>41.7</v>
       </c>
       <c r="E102" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F102" t="n">
-        <v>3799</v>
+        <v>21285.923</v>
       </c>
       <c r="G102" t="n">
-        <v>649744.5901422513</v>
+        <v>873979.4765422513</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4358,28 +4484,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="C103" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="D103" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="E103" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="F103" t="n">
-        <v>16492.2195</v>
+        <v>65601.5678</v>
       </c>
       <c r="G103" t="n">
-        <v>633252.3706422513</v>
+        <v>808377.9087422513</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4394,22 +4520,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="C104" t="n">
-        <v>39.4</v>
+        <v>40.6</v>
       </c>
       <c r="D104" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="E104" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="F104" t="n">
-        <v>31490</v>
+        <v>67443.0453</v>
       </c>
       <c r="G104" t="n">
-        <v>601762.3706422513</v>
+        <v>740934.8634422513</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4430,28 +4556,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="C105" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="D105" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="E105" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="F105" t="n">
-        <v>1095.7005</v>
+        <v>4595.5975</v>
       </c>
       <c r="G105" t="n">
-        <v>602858.0711422514</v>
+        <v>745530.4609422514</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4466,22 +4592,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="C106" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="D106" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="E106" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="F106" t="n">
-        <v>1534.5864</v>
+        <v>2638.9233</v>
       </c>
       <c r="G106" t="n">
-        <v>604392.6575422514</v>
+        <v>745530.4609422514</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4502,28 +4628,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>39.6</v>
+        <v>40.6</v>
       </c>
       <c r="C107" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="D107" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="E107" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="F107" t="n">
-        <v>34645.774</v>
+        <v>1087.8509</v>
       </c>
       <c r="G107" t="n">
-        <v>569746.8835422514</v>
+        <v>744442.6100422514</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4538,28 +4664,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="C108" t="n">
-        <v>39.5</v>
+        <v>40.7</v>
       </c>
       <c r="D108" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="E108" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="F108" t="n">
-        <v>18870.8769</v>
+        <v>1213.691</v>
       </c>
       <c r="G108" t="n">
-        <v>550876.0066422514</v>
+        <v>745656.3010422514</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4574,28 +4700,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="C109" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="D109" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="E109" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="F109" t="n">
-        <v>19304.3305</v>
+        <v>1594.1583</v>
       </c>
       <c r="G109" t="n">
-        <v>550876.0066422514</v>
+        <v>744062.1427422514</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4610,28 +4736,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="C110" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="D110" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="E110" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="F110" t="n">
-        <v>24505.0646</v>
+        <v>1068.2563</v>
       </c>
       <c r="G110" t="n">
-        <v>526370.9420422514</v>
+        <v>742993.8864422514</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4646,28 +4772,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="C111" t="n">
-        <v>39.4</v>
+        <v>40.8</v>
       </c>
       <c r="D111" t="n">
-        <v>39.4</v>
+        <v>40.8</v>
       </c>
       <c r="E111" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="F111" t="n">
-        <v>4063.2994</v>
+        <v>11200.9653</v>
       </c>
       <c r="G111" t="n">
-        <v>530434.2414422514</v>
+        <v>754194.8517422514</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4682,28 +4808,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="C112" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="D112" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="E112" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="F112" t="n">
-        <v>1166.9733</v>
+        <v>8035.4012</v>
       </c>
       <c r="G112" t="n">
-        <v>530434.2414422514</v>
+        <v>746159.4505422515</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4718,28 +4844,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="C113" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="D113" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="E113" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="F113" t="n">
-        <v>8146</v>
+        <v>6043.4258</v>
       </c>
       <c r="G113" t="n">
-        <v>522288.2414422514</v>
+        <v>746159.4505422515</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4754,22 +4880,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="C114" t="n">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="D114" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="E114" t="n">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="F114" t="n">
-        <v>50000</v>
+        <v>107562.1806</v>
       </c>
       <c r="G114" t="n">
-        <v>472288.2414422514</v>
+        <v>638597.2699422515</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4790,22 +4916,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>39.2</v>
+        <v>40.3</v>
       </c>
       <c r="C115" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="D115" t="n">
-        <v>39.2</v>
+        <v>40.3</v>
       </c>
       <c r="E115" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="F115" t="n">
-        <v>27194.8677</v>
+        <v>46795.077</v>
       </c>
       <c r="G115" t="n">
-        <v>472288.2414422514</v>
+        <v>591802.1929422515</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4826,22 +4952,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="C116" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="D116" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="E116" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="F116" t="n">
-        <v>50552.3538</v>
+        <v>1222.3472</v>
       </c>
       <c r="G116" t="n">
-        <v>522840.5952422514</v>
+        <v>593024.5401422514</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4862,22 +4988,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="C117" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="D117" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="E117" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="F117" t="n">
-        <v>1017.0223</v>
+        <v>15500.4822</v>
       </c>
       <c r="G117" t="n">
-        <v>521823.5729422513</v>
+        <v>577524.0579422514</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4898,22 +5024,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="C118" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="D118" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="E118" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="F118" t="n">
-        <v>7905</v>
+        <v>9600</v>
       </c>
       <c r="G118" t="n">
-        <v>521823.5729422513</v>
+        <v>587124.0579422514</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4934,22 +5060,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="C119" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="D119" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="E119" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="F119" t="n">
-        <v>1253.148</v>
+        <v>13585.5273</v>
       </c>
       <c r="G119" t="n">
-        <v>521823.5729422513</v>
+        <v>573538.5306422515</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4970,22 +5096,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C120" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="D120" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="E120" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F120" t="n">
-        <v>3925.263</v>
+        <v>7886.1564</v>
       </c>
       <c r="G120" t="n">
-        <v>521823.5729422513</v>
+        <v>581424.6870422515</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5006,22 +5132,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C121" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="D121" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="E121" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F121" t="n">
-        <v>12414.9288</v>
+        <v>31269.528</v>
       </c>
       <c r="G121" t="n">
-        <v>521823.5729422513</v>
+        <v>550155.1590422514</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5042,22 +5168,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="C122" t="n">
-        <v>39.1</v>
+        <v>40</v>
       </c>
       <c r="D122" t="n">
-        <v>39.1</v>
+        <v>40.1</v>
       </c>
       <c r="E122" t="n">
-        <v>39.1</v>
+        <v>39.5</v>
       </c>
       <c r="F122" t="n">
-        <v>18994.3001</v>
+        <v>103733.5156</v>
       </c>
       <c r="G122" t="n">
-        <v>502829.2728422513</v>
+        <v>653888.6746422515</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5078,22 +5204,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="C123" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="D123" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="E123" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="F123" t="n">
-        <v>12224.5954</v>
+        <v>4504.4575</v>
       </c>
       <c r="G123" t="n">
-        <v>502829.2728422513</v>
+        <v>649384.2171422514</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5114,22 +5240,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="C124" t="n">
-        <v>39.1</v>
+        <v>39.5</v>
       </c>
       <c r="D124" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="E124" t="n">
-        <v>39.1</v>
+        <v>39.5</v>
       </c>
       <c r="F124" t="n">
-        <v>1340.6274</v>
+        <v>15167.6444</v>
       </c>
       <c r="G124" t="n">
-        <v>502829.2728422513</v>
+        <v>634216.5727422514</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5150,22 +5276,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="C125" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D125" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E125" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="F125" t="n">
-        <v>2254.7845</v>
+        <v>26700</v>
       </c>
       <c r="G125" t="n">
-        <v>500574.4883422513</v>
+        <v>660916.5727422514</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5186,22 +5312,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="C126" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="D126" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="E126" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="F126" t="n">
-        <v>1343.0445</v>
+        <v>22461.2437</v>
       </c>
       <c r="G126" t="n">
-        <v>501917.5328422514</v>
+        <v>683377.8164422514</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5222,22 +5348,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>39</v>
+        <v>40.1</v>
       </c>
       <c r="C127" t="n">
-        <v>39.1</v>
+        <v>40</v>
       </c>
       <c r="D127" t="n">
-        <v>39.1</v>
+        <v>40.1</v>
       </c>
       <c r="E127" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F127" t="n">
-        <v>21082.7442</v>
+        <v>12836.121</v>
       </c>
       <c r="G127" t="n">
-        <v>480834.7886422513</v>
+        <v>670541.6954422514</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5258,22 +5384,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C128" t="n">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="D128" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E128" t="n">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="F128" t="n">
-        <v>109098.6765</v>
+        <v>2890</v>
       </c>
       <c r="G128" t="n">
-        <v>371736.1121422513</v>
+        <v>670541.6954422514</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5294,22 +5420,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="C129" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="D129" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="E129" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="F129" t="n">
-        <v>8328.363499999999</v>
+        <v>3936.9854</v>
       </c>
       <c r="G129" t="n">
-        <v>380064.4756422513</v>
+        <v>670541.6954422514</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5330,22 +5456,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>38.9</v>
+        <v>39.8</v>
       </c>
       <c r="C130" t="n">
-        <v>38.9</v>
+        <v>39.9</v>
       </c>
       <c r="D130" t="n">
-        <v>38.9</v>
+        <v>39.9</v>
       </c>
       <c r="E130" t="n">
-        <v>38.9</v>
+        <v>39.6</v>
       </c>
       <c r="F130" t="n">
-        <v>2269.8437</v>
+        <v>24596.1053</v>
       </c>
       <c r="G130" t="n">
-        <v>380064.4756422513</v>
+        <v>645945.5901422513</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5366,22 +5492,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="C131" t="n">
-        <v>38.9</v>
+        <v>40.1</v>
       </c>
       <c r="D131" t="n">
-        <v>38.9</v>
+        <v>40.1</v>
       </c>
       <c r="E131" t="n">
-        <v>38.9</v>
+        <v>40</v>
       </c>
       <c r="F131" t="n">
-        <v>12184.4568</v>
+        <v>3799</v>
       </c>
       <c r="G131" t="n">
-        <v>380064.4756422513</v>
+        <v>649744.5901422513</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5402,22 +5528,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
       <c r="C132" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
       <c r="D132" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
       <c r="E132" t="n">
-        <v>38.8</v>
+        <v>39.9</v>
       </c>
       <c r="F132" t="n">
-        <v>1350.439</v>
+        <v>16492.2195</v>
       </c>
       <c r="G132" t="n">
-        <v>378714.0366422513</v>
+        <v>633252.3706422513</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5438,22 +5564,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>38.9</v>
+        <v>39.9</v>
       </c>
       <c r="C133" t="n">
-        <v>38.9</v>
+        <v>39.4</v>
       </c>
       <c r="D133" t="n">
-        <v>38.9</v>
+        <v>39.9</v>
       </c>
       <c r="E133" t="n">
-        <v>38.9</v>
+        <v>39.4</v>
       </c>
       <c r="F133" t="n">
-        <v>1350</v>
+        <v>31490</v>
       </c>
       <c r="G133" t="n">
-        <v>380064.0366422513</v>
+        <v>601762.3706422513</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5469,6 +5595,1050 @@
       </c>
       <c r="N133" t="inlineStr"/>
     </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1095.7005</v>
+      </c>
+      <c r="G134" t="n">
+        <v>602858.0711422514</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1534.5864</v>
+      </c>
+      <c r="G135" t="n">
+        <v>604392.6575422514</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>34645.774</v>
+      </c>
+      <c r="G136" t="n">
+        <v>569746.8835422514</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18870.8769</v>
+      </c>
+      <c r="G137" t="n">
+        <v>550876.0066422514</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>19304.3305</v>
+      </c>
+      <c r="G138" t="n">
+        <v>550876.0066422514</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>24505.0646</v>
+      </c>
+      <c r="G139" t="n">
+        <v>526370.9420422514</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4063.2994</v>
+      </c>
+      <c r="G140" t="n">
+        <v>530434.2414422514</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1166.9733</v>
+      </c>
+      <c r="G141" t="n">
+        <v>530434.2414422514</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8146</v>
+      </c>
+      <c r="G142" t="n">
+        <v>522288.2414422514</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>472288.2414422514</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>27194.8677</v>
+      </c>
+      <c r="G144" t="n">
+        <v>472288.2414422514</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50552.3538</v>
+      </c>
+      <c r="G145" t="n">
+        <v>522840.5952422514</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1017.0223</v>
+      </c>
+      <c r="G146" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7905</v>
+      </c>
+      <c r="G147" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1253.148</v>
+      </c>
+      <c r="G148" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3925.263</v>
+      </c>
+      <c r="G149" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12414.9288</v>
+      </c>
+      <c r="G150" t="n">
+        <v>521823.5729422513</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>18994.3001</v>
+      </c>
+      <c r="G151" t="n">
+        <v>502829.2728422513</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12224.5954</v>
+      </c>
+      <c r="G152" t="n">
+        <v>502829.2728422513</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1340.6274</v>
+      </c>
+      <c r="G153" t="n">
+        <v>502829.2728422513</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>39</v>
+      </c>
+      <c r="C154" t="n">
+        <v>39</v>
+      </c>
+      <c r="D154" t="n">
+        <v>39</v>
+      </c>
+      <c r="E154" t="n">
+        <v>39</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2254.7845</v>
+      </c>
+      <c r="G154" t="n">
+        <v>500574.4883422513</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1343.0445</v>
+      </c>
+      <c r="G155" t="n">
+        <v>501917.5328422514</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>39</v>
+      </c>
+      <c r="C156" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>39</v>
+      </c>
+      <c r="F156" t="n">
+        <v>21082.7442</v>
+      </c>
+      <c r="G156" t="n">
+        <v>480834.7886422513</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>39</v>
+      </c>
+      <c r="C157" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>39</v>
+      </c>
+      <c r="E157" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>109098.6765</v>
+      </c>
+      <c r="G157" t="n">
+        <v>371736.1121422513</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8328.363499999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>380064.4756422513</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2269.8437</v>
+      </c>
+      <c r="G159" t="n">
+        <v>380064.4756422513</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12184.4568</v>
+      </c>
+      <c r="G160" t="n">
+        <v>380064.4756422513</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1350.439</v>
+      </c>
+      <c r="G161" t="n">
+        <v>378714.0366422513</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G162" t="n">
+        <v>380064.0366422513</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-16 BackTest LRC.xlsx
+++ b/BackTest/2019-10-16 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>363604.7124438144</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>379305.4397438145</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>39.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,20 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,20 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,20 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,20 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,24 +649,15 @@
         <v>365029.6166438144</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,24 +682,19 @@
         <v>377224.7015438144</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>39.3</v>
       </c>
       <c r="J9" t="n">
         <v>39.3</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,24 +719,23 @@
         <v>368909.6166438144</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="J10" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,24 +760,21 @@
         <v>344741.9890438144</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,24 +799,21 @@
         <v>331825.9378438144</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -906,22 +840,19 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>39</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -946,24 +877,23 @@
         <v>340250.9377438144</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="J14" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -990,22 +920,19 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1030,22 +957,21 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1070,24 +996,21 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1112,24 +1035,23 @@
         <v>350295.8488545914</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>39.2</v>
       </c>
       <c r="J18" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1154,24 +1076,21 @@
         <v>447256.0211545913</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1196,24 +1115,21 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1240,20 +1156,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1280,20 +1195,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1320,20 +1234,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1360,20 +1273,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1400,20 +1312,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1440,20 +1351,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1480,22 +1390,19 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1522,20 +1429,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1560,22 +1466,21 @@
         <v>465504.0016545913</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1600,24 +1505,21 @@
         <v>461652.0016545913</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1642,22 +1544,21 @@
         <v>468300.0919545913</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1682,22 +1583,21 @@
         <v>469391.0729545913</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1724,22 +1624,19 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1764,22 +1661,21 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1804,22 +1700,21 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1844,22 +1739,21 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1884,22 +1778,21 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1924,22 +1817,21 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1966,20 +1858,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2006,20 +1897,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2046,20 +1936,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2086,20 +1975,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2126,20 +2014,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2166,20 +2053,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2206,20 +2092,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2246,20 +2131,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2286,20 +2170,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2326,20 +2209,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2366,20 +2248,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2406,20 +2287,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2446,20 +2326,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2486,20 +2365,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2526,20 +2404,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2566,20 +2443,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2606,20 +2482,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2646,20 +2521,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2686,20 +2560,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2726,20 +2599,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2766,20 +2638,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2806,20 +2677,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2846,20 +2716,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2886,20 +2755,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2926,20 +2794,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2966,20 +2833,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3006,20 +2872,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3046,20 +2911,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3086,20 +2950,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3126,20 +2989,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3166,20 +3028,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3206,20 +3067,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3246,20 +3106,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3286,20 +3145,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3326,20 +3184,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3366,20 +3223,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3406,20 +3262,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3446,20 +3301,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3486,20 +3340,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3526,20 +3379,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3566,20 +3418,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3606,20 +3457,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3646,20 +3496,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3686,20 +3535,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3724,22 +3572,21 @@
         <v>797142.3996459492</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.030623409669212</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3764,22 +3611,15 @@
         <v>760756.8742459492</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3806,20 +3646,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3844,22 +3677,15 @@
         <v>760756.8742459492</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3884,22 +3710,15 @@
         <v>772501.4054459492</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3924,22 +3743,15 @@
         <v>758266.7234459491</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3964,22 +3776,15 @@
         <v>762460.8302459491</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4006,20 +3811,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4044,22 +3842,15 @@
         <v>780525.4742459491</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4086,20 +3877,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4126,20 +3910,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4166,20 +3943,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4206,20 +3976,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4246,20 +4009,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4286,18 +4042,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L97" t="n">
+        <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4324,16 +4075,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4358,18 +4106,15 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4394,18 +4139,15 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4430,18 +4172,15 @@
         <v>895265.3995422513</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4466,18 +4205,15 @@
         <v>873979.4765422513</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4502,18 +4238,15 @@
         <v>808377.9087422513</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4538,18 +4271,15 @@
         <v>740934.8634422513</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4574,18 +4304,15 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4610,18 +4337,15 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4648,16 +4372,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4684,16 +4405,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4720,16 +4438,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4756,16 +4471,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4792,16 +4504,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4828,16 +4537,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4864,16 +4570,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4900,16 +4603,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4936,16 +4636,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4972,16 +4669,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5008,16 +4702,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5044,16 +4735,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5080,16 +4768,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5116,16 +4801,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5150,18 +4832,15 @@
         <v>550155.1590422514</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5188,16 +4867,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5224,16 +4900,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5260,16 +4933,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5296,16 +4966,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5332,16 +4999,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5368,16 +5032,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5404,16 +5065,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5440,16 +5098,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5476,16 +5131,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5512,16 +5164,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5548,16 +5197,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5584,16 +5230,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5620,16 +5263,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5656,16 +5296,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5692,16 +5329,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5728,16 +5362,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5762,18 +5393,15 @@
         <v>550876.0066422514</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5800,16 +5428,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5836,16 +5461,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5870,18 +5492,15 @@
         <v>530434.2414422514</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5906,18 +5525,15 @@
         <v>522288.2414422514</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5942,18 +5558,15 @@
         <v>472288.2414422514</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5978,18 +5591,15 @@
         <v>472288.2414422514</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6016,16 +5626,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6052,16 +5659,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6086,18 +5690,15 @@
         <v>521823.5729422513</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6124,16 +5725,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6160,16 +5758,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6196,16 +5791,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6232,16 +5824,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6268,16 +5857,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6304,16 +5890,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6340,16 +5923,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6376,16 +5956,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6412,16 +5989,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6448,16 +6022,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6484,16 +6055,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6520,16 +6088,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6556,16 +6121,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6592,16 +6154,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6628,18 +6187,15 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest LRC.xlsx
+++ b/BackTest/2019-10-16 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>363604.7124438144</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,11 +649,17 @@
         <v>365029.6166438144</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,15 +688,17 @@
         <v>377224.7015438144</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>39.3</v>
       </c>
-      <c r="J9" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,17 +727,15 @@
         <v>368909.6166438144</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>39.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -760,15 +766,15 @@
         <v>344741.9890438144</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>39.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -799,12 +805,12 @@
         <v>331825.9378438144</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>39.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -840,10 +846,10 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="I13" t="n">
+        <v>39</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -877,14 +883,12 @@
         <v>340250.9377438144</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>38.9</v>
       </c>
-      <c r="J14" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -920,10 +924,10 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="I15" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -959,10 +963,10 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="I16" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -996,12 +1000,12 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>39.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1035,14 +1039,12 @@
         <v>350295.8488545914</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>39.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1076,12 +1078,12 @@
         <v>447256.0211545913</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>39.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1115,12 +1117,12 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>39.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1157,9 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1196,9 +1196,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1235,9 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1274,9 +1270,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1313,9 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1352,9 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1388,12 +1378,10 @@
         <v>451984.5208545913</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1430,9 +1418,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1466,12 +1452,10 @@
         <v>465504.0016545913</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1508,9 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1544,12 +1526,10 @@
         <v>468300.0919545913</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1583,12 +1563,10 @@
         <v>469391.0729545913</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1622,12 +1600,10 @@
         <v>382156.0344545913</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1661,12 +1637,10 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1700,12 +1674,10 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1739,12 +1711,10 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1778,12 +1748,10 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1817,12 +1785,10 @@
         <v>382199.0344545913</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1859,9 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1898,9 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1937,9 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1976,9 +1936,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2015,9 +1973,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,9 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2093,9 +2047,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,9 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2171,9 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,9 +2158,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2249,9 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,9 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,9 +2269,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2366,9 +2306,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2405,9 +2343,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,9 +2380,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,9 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,9 +2454,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2561,9 +2491,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,9 +2528,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,9 +2565,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,9 +2602,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,9 +2639,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,9 +2676,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2795,9 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,9 +2750,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,9 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2912,9 +2824,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2951,9 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,9 +2898,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3029,9 +2935,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3068,9 +2972,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3107,9 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3146,9 +3046,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3185,9 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,9 +3120,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3263,9 +3157,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,9 +3194,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3341,9 +3231,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,9 +3268,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,9 +3305,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,9 +3342,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3497,9 +3379,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,9 +3416,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,19 +3450,17 @@
         <v>797142.3996459492</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.030623409669212</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3611,11 +3487,15 @@
         <v>760756.8742459492</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3648,7 +3528,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3677,11 +3561,15 @@
         <v>760756.8742459492</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3710,11 +3598,15 @@
         <v>772501.4054459492</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3743,11 +3635,15 @@
         <v>758266.7234459491</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3776,11 +3672,15 @@
         <v>762460.8302459491</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3813,7 +3713,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3842,11 +3746,15 @@
         <v>780525.4742459491</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3879,7 +3787,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3912,7 +3824,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3945,7 +3861,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3978,7 +3898,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4011,7 +3935,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4044,7 +3972,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4077,7 +4009,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4106,11 +4042,15 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4139,14 +4079,16 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -4172,7 +4114,7 @@
         <v>895265.3995422513</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4205,7 +4147,7 @@
         <v>873979.4765422513</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4238,7 +4180,7 @@
         <v>808377.9087422513</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4271,7 +4213,7 @@
         <v>740934.8634422513</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4304,7 +4246,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4337,7 +4279,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4370,7 +4312,7 @@
         <v>744442.6100422514</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4403,7 +4345,7 @@
         <v>745656.3010422514</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4436,7 +4378,7 @@
         <v>744062.1427422514</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4469,7 +4411,7 @@
         <v>742993.8864422514</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4502,7 +4444,7 @@
         <v>754194.8517422514</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4535,7 +4477,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4568,7 +4510,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4601,7 +4543,7 @@
         <v>638597.2699422515</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4634,7 +4576,7 @@
         <v>591802.1929422515</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4667,7 +4609,7 @@
         <v>593024.5401422514</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4700,7 +4642,7 @@
         <v>577524.0579422514</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4733,7 +4675,7 @@
         <v>587124.0579422514</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4766,7 +4708,7 @@
         <v>573538.5306422515</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4799,7 +4741,7 @@
         <v>581424.6870422515</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4832,7 +4774,7 @@
         <v>550155.1590422514</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4865,7 +4807,7 @@
         <v>653888.6746422515</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4898,7 +4840,7 @@
         <v>649384.2171422514</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4931,7 +4873,7 @@
         <v>634216.5727422514</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4964,7 +4906,7 @@
         <v>660916.5727422514</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4997,7 +4939,7 @@
         <v>683377.8164422514</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5030,7 +4972,7 @@
         <v>670541.6954422514</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5063,7 +5005,7 @@
         <v>670541.6954422514</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5096,7 +5038,7 @@
         <v>670541.6954422514</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5129,7 +5071,7 @@
         <v>645945.5901422513</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5162,7 +5104,7 @@
         <v>649744.5901422513</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5195,7 +5137,7 @@
         <v>633252.3706422513</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5261,7 +5203,7 @@
         <v>602858.0711422514</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5294,7 +5236,7 @@
         <v>604392.6575422514</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5327,7 +5269,7 @@
         <v>569746.8835422514</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5360,7 +5302,7 @@
         <v>550876.0066422514</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5393,7 +5335,7 @@
         <v>550876.0066422514</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5426,7 +5368,7 @@
         <v>526370.9420422514</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5459,7 +5401,7 @@
         <v>530434.2414422514</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5492,7 +5434,7 @@
         <v>530434.2414422514</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5525,7 +5467,7 @@
         <v>522288.2414422514</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5558,7 +5500,7 @@
         <v>472288.2414422514</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5591,7 +5533,7 @@
         <v>472288.2414422514</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5624,7 +5566,7 @@
         <v>522840.5952422514</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5690,7 +5632,7 @@
         <v>521823.5729422513</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5723,7 +5665,7 @@
         <v>521823.5729422513</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6196,6 +6138,6 @@
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest LRC.xlsx
+++ b/BackTest/2019-10-16 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,17 +649,11 @@
         <v>365029.6166438144</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,17 +682,11 @@
         <v>377224.7015438144</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,17 +715,11 @@
         <v>368909.6166438144</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -766,17 +748,11 @@
         <v>344741.9890438144</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>39.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -805,17 +781,11 @@
         <v>331825.9378438144</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -844,17 +814,11 @@
         <v>322975.9378438144</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,17 +847,11 @@
         <v>340250.9377438144</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>38.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -922,17 +880,11 @@
         <v>356951.7589545914</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -961,17 +913,11 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1000,17 +946,11 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>39.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1039,17 +979,11 @@
         <v>350295.8488545914</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>39.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,17 +1012,11 @@
         <v>447256.0211545913</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>39.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1117,17 +1045,11 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,15 +1078,11 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,15 +1111,11 @@
         <v>439063.4607545913</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,15 +1144,11 @@
         <v>472051.0583545913</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,15 +1177,11 @@
         <v>455358.9891545913</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,15 +1210,11 @@
         <v>455446.9891545913</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,15 +1243,11 @@
         <v>453052.5208545913</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,15 +1276,11 @@
         <v>451984.5208545913</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1419,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1456,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1493,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1530,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1567,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1604,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1641,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1678,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1715,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1752,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1789,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1826,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1863,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1900,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1974,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2011,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2048,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2085,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2122,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2159,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2196,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2270,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2307,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2455,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2677,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2899,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2936,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3047,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3084,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3121,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3232,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3269,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3306,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3343,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3380,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3417,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3491,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3528,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3639,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3676,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3713,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3824,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3861,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3898,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3935,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3972,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4009,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4046,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4079,16 +3685,14 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
       <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -4114,7 +3718,7 @@
         <v>895265.3995422513</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4147,7 +3751,7 @@
         <v>873979.4765422513</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4180,7 +3784,7 @@
         <v>808377.9087422513</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4213,7 +3817,7 @@
         <v>740934.8634422513</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4246,7 +3850,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4279,7 +3883,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4312,7 +3916,7 @@
         <v>744442.6100422514</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4345,7 +3949,7 @@
         <v>745656.3010422514</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4378,7 +3982,7 @@
         <v>744062.1427422514</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4411,7 +4015,7 @@
         <v>742993.8864422514</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4444,7 +4048,7 @@
         <v>754194.8517422514</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4477,7 +4081,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4510,7 +4114,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4543,7 +4147,7 @@
         <v>638597.2699422515</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4576,7 +4180,7 @@
         <v>591802.1929422515</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4609,7 +4213,7 @@
         <v>593024.5401422514</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4642,7 +4246,7 @@
         <v>577524.0579422514</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4675,7 +4279,7 @@
         <v>587124.0579422514</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4708,7 +4312,7 @@
         <v>573538.5306422515</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4741,7 +4345,7 @@
         <v>581424.6870422515</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4774,7 +4378,7 @@
         <v>550155.1590422514</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4807,7 +4411,7 @@
         <v>653888.6746422515</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4840,7 +4444,7 @@
         <v>649384.2171422514</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4873,7 +4477,7 @@
         <v>634216.5727422514</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4906,7 +4510,7 @@
         <v>660916.5727422514</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4939,7 +4543,7 @@
         <v>683377.8164422514</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4972,7 +4576,7 @@
         <v>670541.6954422514</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5005,7 +4609,7 @@
         <v>670541.6954422514</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5038,7 +4642,7 @@
         <v>670541.6954422514</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5071,7 +4675,7 @@
         <v>645945.5901422513</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5104,7 +4708,7 @@
         <v>649744.5901422513</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5137,7 +4741,7 @@
         <v>633252.3706422513</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5203,7 +4807,7 @@
         <v>602858.0711422514</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5236,7 +4840,7 @@
         <v>604392.6575422514</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5269,7 +4873,7 @@
         <v>569746.8835422514</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5302,7 +4906,7 @@
         <v>550876.0066422514</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5335,7 +4939,7 @@
         <v>550876.0066422514</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5368,7 +4972,7 @@
         <v>526370.9420422514</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5401,7 +5005,7 @@
         <v>530434.2414422514</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5434,7 +5038,7 @@
         <v>530434.2414422514</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5467,7 +5071,7 @@
         <v>522288.2414422514</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5500,7 +5104,7 @@
         <v>472288.2414422514</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5566,7 +5170,7 @@
         <v>522840.5952422514</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5632,7 +5236,7 @@
         <v>521823.5729422513</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5665,7 +5269,7 @@
         <v>521823.5729422513</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5764,10 +5368,14 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5797,11 +5405,19 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5446,19 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5863,10 +5487,14 @@
         <v>500574.4883422513</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5896,11 +5524,19 @@
         <v>501917.5328422514</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>39</v>
+      </c>
+      <c r="J155" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +5565,19 @@
         <v>480834.7886422513</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +5606,19 @@
         <v>371736.1121422513</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +5647,19 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J158" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +5688,19 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J159" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +5729,19 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J160" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +5770,19 @@
         <v>378714.0366422513</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="J161" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6127,17 +5811,25 @@
         <v>380064.0366422513</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="J162" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest LRC.xlsx
+++ b/BackTest/2019-10-16 BackTest LRC.xlsx
@@ -451,7 +451,7 @@
         <v>363604.7124438144</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>379305.4397438145</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>39.9</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +638,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +671,17 @@
         <v>365029.6166438144</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +710,17 @@
         <v>377224.7015438144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +749,17 @@
         <v>368909.6166438144</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +788,17 @@
         <v>344741.9890438144</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +827,17 @@
         <v>331825.9378438144</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +866,17 @@
         <v>322975.9378438144</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +905,17 @@
         <v>340250.9377438144</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>38.9</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +944,17 @@
         <v>356951.7589545914</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +983,15 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1020,17 @@
         <v>354555.8488545914</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1059,17 @@
         <v>350295.8488545914</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1098,17 @@
         <v>447256.0211545913</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1137,15 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1174,15 @@
         <v>460016.0211545913</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1211,15 @@
         <v>439063.4607545913</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1248,15 @@
         <v>472051.0583545913</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1285,15 @@
         <v>455358.9891545913</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1322,15 @@
         <v>455446.9891545913</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1359,15 @@
         <v>453052.5208545913</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1396,15 @@
         <v>451984.5208545913</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1437,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1474,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1511,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1548,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1585,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1622,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1659,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1696,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1733,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1770,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1807,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1844,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1881,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1918,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1955,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1992,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2029,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2066,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2103,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2140,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2177,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2214,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2251,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2288,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2325,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2362,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2399,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2436,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2473,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2510,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2547,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2584,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2621,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2658,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2695,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2732,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2769,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2806,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2843,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2880,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2917,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2954,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2991,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3028,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3065,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3102,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3139,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3176,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3213,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3250,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3287,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3324,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3361,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3398,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3435,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3472,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3509,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3546,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3583,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3620,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3657,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3694,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3731,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3768,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3805,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3842,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3879,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3916,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3953,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,14 +3986,16 @@
         <v>780287.1203972751</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -3619,7 +4021,7 @@
         <v>958832.7554422512</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +4054,7 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +4087,7 @@
         <v>885155.5929422512</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +4120,7 @@
         <v>895265.3995422513</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +4153,7 @@
         <v>873979.4765422513</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +4186,7 @@
         <v>808377.9087422513</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +4219,7 @@
         <v>740934.8634422513</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +4252,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +4285,7 @@
         <v>745530.4609422514</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4318,7 @@
         <v>744442.6100422514</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +4351,7 @@
         <v>745656.3010422514</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4384,7 @@
         <v>744062.1427422514</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4417,7 @@
         <v>742993.8864422514</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4483,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4516,7 @@
         <v>746159.4505422515</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -5368,14 +5770,10 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J151" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5405,19 +5803,11 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5446,19 +5836,11 @@
         <v>502829.2728422513</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5487,14 +5869,10 @@
         <v>500574.4883422513</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5524,19 +5902,11 @@
         <v>501917.5328422514</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>39</v>
-      </c>
-      <c r="J155" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5565,19 +5935,11 @@
         <v>480834.7886422513</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J156" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5606,19 +5968,11 @@
         <v>371736.1121422513</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5647,19 +6001,11 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J158" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5688,19 +6034,11 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="J159" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5729,19 +6067,11 @@
         <v>380064.4756422513</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="J160" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5770,19 +6100,11 @@
         <v>378714.0366422513</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="J161" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5811,19 +6133,11 @@
         <v>380064.0366422513</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J162" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
